--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881DCFF4-1F8F-4A0F-8CEA-97AD02CCAD30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF788F-0200-4266-AAE5-DA9617AB1BF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D78780000000023303030300000000000000000000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Reservation</t>
   </si>
   <si>
@@ -266,6 +262,10 @@
   </si>
   <si>
     <t>SERIAL NUMBER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000000004</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DC74D-9417-4124-AE6F-360A4C6083BD}">
   <dimension ref="A2:BD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:R40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AS60" sqref="AS60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -867,7 +867,7 @@
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1340,7 +1340,7 @@
         <v>02</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1734,7 +1734,7 @@
         <v>06</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2128,7 +2128,7 @@
         <v>0A</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2522,7 +2522,7 @@
         <v>0E</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -3182,7 +3182,7 @@
         <v>02</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -3576,7 +3576,7 @@
         <v>06</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3970,7 +3970,7 @@
         <v>0A</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -4364,7 +4364,7 @@
         <v>0E</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -7459,7 +7459,7 @@
         <v>0F</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -7476,7 +7476,7 @@
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T60" s="2">
         <v>15</v>
@@ -7643,7 +7643,7 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
@@ -7686,7 +7686,7 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -7729,7 +7729,7 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
@@ -7760,7 +7760,7 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -7780,7 +7780,7 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -7831,7 +7831,7 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -7882,7 +7882,7 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -7933,7 +7933,7 @@
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -7984,7 +7984,7 @@
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -8035,7 +8035,7 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -8086,7 +8086,7 @@
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -8137,7 +8137,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
@@ -8310,10 +8310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926D768E-8E9B-4088-96CA-6FE80232855F}">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8333,405 +8333,405 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
         <f>DEC2HEX(A2,2)</f>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="C2" t="str">
         <f>C1&amp;B2</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="str">
         <f>DEC2HEX(A3,2)</f>
-        <v>02</v>
+        <v>00</v>
       </c>
       <c r="C3" t="str">
         <f>C2&amp;B3</f>
-        <v>000102</v>
+        <v>000000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" t="str">
         <f>DEC2HEX(A4,2)</f>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="C4" t="str">
         <f>C3&amp;B4</f>
-        <v>00010203</v>
+        <v>00000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B68" si="0">DEC2HEX(A5,2)</f>
-        <v>04</v>
+        <v>00</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ref="C5:C68" si="1">C4&amp;B5</f>
-        <v>0001020304</v>
+        <v>0000000000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>00</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405</v>
+        <v>000000000000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>06</v>
+        <v>00</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>00010203040506</v>
+        <v>00000000000000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>07</v>
+        <v>00</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>0001020304050607</v>
+        <v>0000000000000000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>08</v>
+        <v>00</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708</v>
+        <v>000000000000000000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>09</v>
+        <v>00</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>00010203040506070809</v>
+        <v>00000000000000000000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>0A</v>
+        <v>00</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A</v>
+        <v>0000000000000000000000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>0B</v>
+        <v>00</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B</v>
+        <v>000000000000000000000000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>0C</v>
+        <v>00</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C</v>
+        <v>00000000000000000000000000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>0D</v>
+        <v>00</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D</v>
+        <v>0000000000000000000000000000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>0E</v>
+        <v>00</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E</v>
+        <v>000000000000000000000000000000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>0F</v>
+        <v>00</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F</v>
+        <v>00000000000000000000000000000000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>02</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F10</v>
+        <v>0000000000000000000000000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>02</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F1011</v>
+        <v>000000000000000000000000000000000202</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>02</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112</v>
+        <v>00000000000000000000000000000000020202</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>02</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F10111213</v>
+        <v>0000000000000000000000000000000002020202</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>02</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F1011121314</v>
+        <v>000000000000000000000000000000000202020202</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>02</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415</v>
+        <v>00000000000000000000000000000000020202020202</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>02</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F10111213141516</v>
+        <v>0000000000000000000000000000000002020202020202</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>02</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F1011121314151617</v>
+        <v>000000000000000000000000000000000202020202020202</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>02</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718</v>
+        <v>00000000000000000000000000000000020202020202020202</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>02</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F10111213141516171819</v>
+        <v>0000000000000000000000000000000002020202020202020202</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>1A</v>
+        <v>02</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A</v>
+        <v>000000000000000000000000000000000202020202020202020202</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>1B</v>
+        <v>02</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B</v>
+        <v>00000000000000000000000000000000020202020202020202020202</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>1C</v>
+        <v>02</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C</v>
+        <v>0000000000000000000000000000000002020202020202020202020202</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>1D</v>
+        <v>02</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D</v>
+        <v>000000000000000000000000000000000202020202020202020202020202</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>1E</v>
+        <v>02</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E</v>
+        <v>00000000000000000000000000000000020202020202020202020202020202</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>1F</v>
+        <v>00</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F20</v>
+        <v>000000000000000000000000000000000202020202020202020202020202020020</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F2021</v>
+        <v>00000000000000000000000000000000020202020202020202020202020202002021</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F20212223</v>
+        <v>000000000000000000000000000000000202020202020202020202020202020020212223</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F2021222324</v>
+        <v>00000000000000000000000000000000020202020202020202020202020202002021222324</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F20212223242526</v>
+        <v>000000000000000000000000000000000202020202020202020202020202020020212223242526</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F2021222324252627</v>
+        <v>00000000000000000000000000000000020202020202020202020202020202002021222324252627</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F20212223242526272829</v>
+        <v>000000000000000000000000000000000202020202020202020202020202020020212223242526272829</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F30</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F30</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F3031</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F3031</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F30313233</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F30313233</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F3031323334</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F3031323334</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F30313233343536</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F30313233343536</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F3031323334353637</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F3031323334353637</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F30313233343536373839</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F30313233343536373839</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ref="C69:C132" si="3">C68&amp;B69</f>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041424344</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041424344</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
@@ -9238,7 +9238,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243444546</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243444546</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041424344454647</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041424344454647</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243444546474849</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243444546474849</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
@@ -9342,7 +9342,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -9355,7 +9355,7 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -9420,7 +9420,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051525354</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051525354</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253545556</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253545556</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051525354555657</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051525354555657</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253545556575859</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253545556575859</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
@@ -9550,7 +9550,7 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
@@ -9563,7 +9563,7 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061626364</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061626364</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="C102" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
@@ -9654,7 +9654,7 @@
       </c>
       <c r="C103" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263646566</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263646566</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061626364656667</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061626364656667</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="C105" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="C106" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263646566676869</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263646566676869</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="C107" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="C108" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="C109" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
@@ -9745,7 +9745,7 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="C112" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="C113" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
@@ -9797,7 +9797,7 @@
       </c>
       <c r="C114" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="C116" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="C117" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071727374</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071727374</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="C118" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
@@ -9862,7 +9862,7 @@
       </c>
       <c r="C119" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273747576</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273747576</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
@@ -9875,7 +9875,7 @@
       </c>
       <c r="C120" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071727374757677</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071727374757677</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C121" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="C122" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273747576777879</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273747576777879</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="C123" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
@@ -9927,7 +9927,7 @@
       </c>
       <c r="C124" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="C125" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="C126" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="C127" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="C128" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
@@ -9992,7 +9992,7 @@
       </c>
       <c r="C129" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="C130" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
@@ -10018,7 +10018,7 @@
       </c>
       <c r="C131" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="C132" t="str">
         <f t="shared" si="3"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="C133" t="str">
         <f t="shared" ref="C133:C196" si="5">C132&amp;B133</f>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081828384</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081828384</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="C134" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="C135" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283848586</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283848586</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="C136" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081828384858687</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081828384858687</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="C137" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="C138" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283848586878889</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283848586878889</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
@@ -10122,7 +10122,7 @@
       </c>
       <c r="C139" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="C140" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="C141" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="C142" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="C143" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="C144" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="C145" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
@@ -10213,7 +10213,7 @@
       </c>
       <c r="C146" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="C147" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="C148" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="C149" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091929394</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091929394</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="C150" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="C151" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293949596</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293949596</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="C152" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091929394959697</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091929394959697</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="C153" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="C154" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293949596979899</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293949596979899</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C155" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="C156" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="C157" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="C158" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="C159" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="C160" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9F</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9F</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="C161" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="C162" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="C163" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="C164" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="C165" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="C166" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="C167" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="C168" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="C169" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="C170" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="C171" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AA</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AA</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C172" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAAB</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAAB</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="C173" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABAC</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABAC</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="C174" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACAD</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACAD</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
@@ -10590,7 +10590,7 @@
       </c>
       <c r="C175" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAE</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAE</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="C176" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAF</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAF</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="C177" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="C178" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
@@ -10642,7 +10642,7 @@
       </c>
       <c r="C179" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
@@ -10655,7 +10655,7 @@
       </c>
       <c r="C180" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
@@ -10668,7 +10668,7 @@
       </c>
       <c r="C181" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="C182" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
@@ -10694,7 +10694,7 @@
       </c>
       <c r="C183" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="C184" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="C185" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
@@ -10733,7 +10733,7 @@
       </c>
       <c r="C186" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="C187" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BA</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BA</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="C188" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABB</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABB</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
@@ -10772,7 +10772,7 @@
       </c>
       <c r="C189" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBC</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBC</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="C190" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBD</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBD</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="C191" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBE</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBE</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="C192" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBF</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBF</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="C193" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="C194" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="C195" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="C196" t="str">
         <f t="shared" si="5"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="C197" t="str">
         <f t="shared" ref="C197:C256" si="7">C196&amp;B197</f>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="C198" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
@@ -10902,7 +10902,7 @@
       </c>
       <c r="C199" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
@@ -10915,7 +10915,7 @@
       </c>
       <c r="C200" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="C201" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
@@ -10941,7 +10941,7 @@
       </c>
       <c r="C202" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="C203" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CA</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CA</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="C204" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACB</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACB</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="C205" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCC</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCC</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="C206" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCD</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCD</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="C207" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCE</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCE</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="C208" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECF</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECF</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="C209" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="C210" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="C211" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="C212" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="C213" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="C214" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
@@ -11110,7 +11110,7 @@
       </c>
       <c r="C215" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="C216" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
@@ -11136,7 +11136,7 @@
       </c>
       <c r="C217" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="C218" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="C219" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DA</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DA</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="C220" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADB</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADB</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="C221" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDC</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDC</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="C222" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDD</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDD</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C223" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDE</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDE</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
@@ -11227,228 +11227,228 @@
       </c>
       <c r="C224" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="B225" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>48</v>
+        <v>E0</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF48</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="B226" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>E1</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF4858</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="B227" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>E2</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="B228" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>E3</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF48587878</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="B229" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>2D</v>
+        <v>E4</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="B230" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>E5</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D78</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="B231" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>E6</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D7878</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="B232" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>E7</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="B233" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>E8</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D78787878</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="B234" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>2D</v>
+        <v>E9</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="B235" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>EA</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D78</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EA</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="B236" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>EB</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D7878</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEB</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="B237" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>EC</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D787800</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBEC</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="B238" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>ED</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D78780000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECED</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="B239" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>EE</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D7878000000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEE</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="B240" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>EF</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D787800000000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B241" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D78780000000023</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="C242" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D7878000000002330</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="C243" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D787800000000233030</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
@@ -11487,20 +11487,20 @@
       </c>
       <c r="C244" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D78780000000023303030</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B245" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>00</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D7878000000002330303030</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="C246" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D787800000000233030303000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
@@ -11526,7 +11526,7 @@
       </c>
       <c r="C247" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D78780000000023303030300000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="C248" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D7878000000002330303030000000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000000000</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
@@ -11552,7 +11552,7 @@
       </c>
       <c r="C249" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D787800000000233030303000000000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000000000</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="C250" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D78780000000023303030300000000000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
@@ -11578,7 +11578,7 @@
       </c>
       <c r="C251" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D7878000000002330303030000000000000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000000000000000</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="C252" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D787800000000233030303000000000000000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000000000000000</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="C253" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D78780000000023303030300000000000000000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="C254" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D7878000000002330303030000000000000000000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000000000000000000000</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
@@ -11630,25 +11630,25 @@
       </c>
       <c r="C255" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D787800000000233030303000000000000000000000</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000000000000000000000</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B256" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00</v>
+        <v>04</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="7"/>
-        <v>000102030405060708090A0B0C0D0E0F101112131415161718191A1B1C1D1E1F202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF485878782D787878782D78780000000023303030300000000000000000000000</v>
-      </c>
-    </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F258" t="s">
-        <v>52</v>
+        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000000004</v>
+      </c>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F260" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF788F-0200-4266-AAE5-DA9617AB1BF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D23E9B-C650-49CF-84E1-77A63AE46767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
@@ -22,15 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="70">
-  <si>
-    <t>DPS State</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DSA State</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="2"/>
@@ -268,6 +260,38 @@
     <t>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000000004</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>STATE0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE BLOCKNUM-0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE BLOCKNUM-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE BLOCKNUM-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STATE BLOCKNUM-3</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -475,6 +499,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -503,21 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DC74D-9417-4124-AE6F-360A4C6083BD}">
   <dimension ref="A2:BD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AS60" sqref="AS60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -866,30 +890,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
@@ -941,7 +965,7 @@
         <v>15</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2">
@@ -996,7 +1020,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>DEC2HEX(C3,2)</f>
@@ -1064,7 +1088,7 @@
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="str">
         <f>DEC2HEX(V3,2)</f>
@@ -1139,26 +1163,24 @@
         <f>DEC2HEX(A5,2)</f>
         <v>00</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
       <c r="T5" s="2">
         <v>0</v>
       </c>
@@ -1239,26 +1261,22 @@
         <f t="shared" ref="B6:B20" si="3">DEC2HEX(A6,2)</f>
         <v>01</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="19"/>
       <c r="T6" s="2">
         <v>1</v>
       </c>
@@ -1339,24 +1357,24 @@
         <f t="shared" si="3"/>
         <v>02</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
+      <c r="C7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
       <c r="T7" s="2">
         <v>2</v>
       </c>
@@ -1437,22 +1455,22 @@
         <f t="shared" si="3"/>
         <v>03</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="19"/>
       <c r="T8" s="2">
         <v>3</v>
       </c>
@@ -1533,26 +1551,24 @@
         <f t="shared" si="3"/>
         <v>04</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
       <c r="T9" s="2">
         <v>4</v>
       </c>
@@ -1633,26 +1649,22 @@
         <f t="shared" si="3"/>
         <v>05</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19"/>
       <c r="T10" s="2">
         <v>5</v>
       </c>
@@ -1733,24 +1745,24 @@
         <f t="shared" si="3"/>
         <v>06</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
+      <c r="C11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
       <c r="T11" s="2">
         <v>6</v>
       </c>
@@ -1831,22 +1843,22 @@
         <f t="shared" si="3"/>
         <v>07</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
       <c r="T12" s="2">
         <v>7</v>
       </c>
@@ -1927,26 +1939,24 @@
         <f t="shared" si="3"/>
         <v>08</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
       <c r="T13" s="2">
         <v>8</v>
       </c>
@@ -2027,26 +2037,22 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="19"/>
       <c r="T14" s="2">
         <v>9</v>
       </c>
@@ -2127,24 +2133,24 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="8"/>
+      <c r="C15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13"/>
       <c r="T15" s="2">
         <v>10</v>
       </c>
@@ -2225,22 +2231,22 @@
         <f t="shared" si="3"/>
         <v>0B</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19"/>
       <c r="T16" s="2">
         <v>11</v>
       </c>
@@ -2321,26 +2327,24 @@
         <f t="shared" si="3"/>
         <v>0C</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
       <c r="T17" s="2">
         <v>12</v>
       </c>
@@ -2421,26 +2425,22 @@
         <f t="shared" si="3"/>
         <v>0D</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
       <c r="T18" s="2">
         <v>13</v>
       </c>
@@ -2521,24 +2521,24 @@
         <f t="shared" si="3"/>
         <v>0E</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="8"/>
+      <c r="C19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
       <c r="T19" s="2">
         <v>14</v>
       </c>
@@ -2619,22 +2619,22 @@
         <f t="shared" si="3"/>
         <v>0F</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
       <c r="T20" s="2">
         <v>15</v>
       </c>
@@ -2708,30 +2708,30 @@
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="A22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -2783,7 +2783,7 @@
         <v>15</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2">
@@ -2838,7 +2838,7 @@
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2" t="str">
         <f>DEC2HEX(C23,2)</f>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" s="2" t="str">
         <f>DEC2HEX(V23,2)</f>
@@ -2981,26 +2981,24 @@
         <f>DEC2HEX(A25,2)</f>
         <v>00</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
       <c r="T25" s="2">
         <v>0</v>
       </c>
@@ -3081,26 +3079,22 @@
         <f t="shared" ref="B26:B40" si="37">DEC2HEX(A26,2)</f>
         <v>01</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="19"/>
       <c r="T26" s="2">
         <v>1</v>
       </c>
@@ -3181,24 +3175,24 @@
         <f t="shared" si="37"/>
         <v>02</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="T27" s="2">
         <v>2</v>
       </c>
@@ -3279,22 +3273,22 @@
         <f t="shared" si="37"/>
         <v>03</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
       <c r="T28" s="2">
         <v>3</v>
       </c>
@@ -3375,26 +3369,24 @@
         <f t="shared" si="37"/>
         <v>04</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="13"/>
       <c r="T29" s="2">
         <v>4</v>
       </c>
@@ -3475,26 +3467,22 @@
         <f t="shared" si="37"/>
         <v>05</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19"/>
       <c r="T30" s="2">
         <v>5</v>
       </c>
@@ -3575,24 +3563,24 @@
         <f t="shared" si="37"/>
         <v>06</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
+      <c r="C31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
       <c r="T31" s="2">
         <v>6</v>
       </c>
@@ -3673,22 +3661,22 @@
         <f t="shared" si="37"/>
         <v>07</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
       <c r="T32" s="2">
         <v>7</v>
       </c>
@@ -3769,26 +3757,24 @@
         <f t="shared" si="37"/>
         <v>08</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="13"/>
       <c r="T33" s="2">
         <v>8</v>
       </c>
@@ -3869,26 +3855,22 @@
         <f t="shared" si="37"/>
         <v>09</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="19"/>
       <c r="T34" s="2">
         <v>9</v>
       </c>
@@ -3969,24 +3951,24 @@
         <f t="shared" si="37"/>
         <v>0A</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
+      <c r="C35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
       <c r="T35" s="2">
         <v>10</v>
       </c>
@@ -4067,22 +4049,22 @@
         <f t="shared" si="37"/>
         <v>0B</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
       <c r="T36" s="2">
         <v>11</v>
       </c>
@@ -4163,26 +4145,24 @@
         <f t="shared" si="37"/>
         <v>0C</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="13"/>
       <c r="T37" s="2">
         <v>12</v>
       </c>
@@ -4263,26 +4243,22 @@
         <f t="shared" si="37"/>
         <v>0D</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="19"/>
       <c r="T38" s="2">
         <v>13</v>
       </c>
@@ -4363,24 +4339,24 @@
         <f t="shared" si="37"/>
         <v>0E</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
+      <c r="C39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
       <c r="T39" s="2">
         <v>14</v>
       </c>
@@ -4461,22 +4437,22 @@
         <f t="shared" si="37"/>
         <v>0F</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
       <c r="T40" s="2">
         <v>15</v>
       </c>
@@ -4550,30 +4526,30 @@
       </c>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="A42" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
+      <c r="A42" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
@@ -4625,7 +4601,7 @@
         <v>15</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2">
@@ -4677,7 +4653,7 @@
         <v>15</v>
       </c>
       <c r="AM43" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2">
@@ -4732,7 +4708,7 @@
     <row r="44" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44" s="2" t="str">
         <f>DEC2HEX(C43,2)</f>
@@ -4800,7 +4776,7 @@
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V44" s="2" t="str">
         <f>DEC2HEX(V43,2)</f>
@@ -4868,7 +4844,7 @@
       </c>
       <c r="AM44" s="2"/>
       <c r="AN44" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="2">
         <f>HEX2DEC(V44)</f>
@@ -4943,25 +4919,25 @@
         <f>DEC2HEX(A45,2)</f>
         <v>00</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="17"/>
+      <c r="C45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="10"/>
       <c r="R45" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T45" s="2">
         <v>0</v>
@@ -5114,25 +5090,25 @@
         <f t="shared" ref="B46:B60" si="78">DEC2HEX(A46,2)</f>
         <v>01</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="17"/>
+      <c r="C46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="10"/>
       <c r="R46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T46" s="2">
         <v>1</v>
@@ -5285,24 +5261,24 @@
         <f t="shared" si="78"/>
         <v>02</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="8"/>
+      <c r="C47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="13"/>
       <c r="T47" s="2">
         <v>2</v>
       </c>
@@ -5454,22 +5430,22 @@
         <f t="shared" si="78"/>
         <v>03</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="11"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="16"/>
       <c r="T48" s="2">
         <v>3</v>
       </c>
@@ -5621,22 +5597,22 @@
         <f t="shared" si="78"/>
         <v>04</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="11"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="16"/>
       <c r="T49" s="2">
         <v>4</v>
       </c>
@@ -5788,22 +5764,22 @@
         <f t="shared" si="78"/>
         <v>05</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="11"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="16"/>
       <c r="T50" s="2">
         <v>5</v>
       </c>
@@ -5955,22 +5931,22 @@
         <f t="shared" si="78"/>
         <v>06</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="11"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="16"/>
       <c r="T51" s="2">
         <v>6</v>
       </c>
@@ -6122,22 +6098,22 @@
         <f t="shared" si="78"/>
         <v>07</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="11"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="16"/>
       <c r="T52" s="2">
         <v>7</v>
       </c>
@@ -6289,22 +6265,22 @@
         <f t="shared" si="78"/>
         <v>08</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="11"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="16"/>
       <c r="T53" s="2">
         <v>8</v>
       </c>
@@ -6456,22 +6432,22 @@
         <f t="shared" si="78"/>
         <v>09</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="11"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="16"/>
       <c r="T54" s="2">
         <v>9</v>
       </c>
@@ -6623,22 +6599,22 @@
         <f t="shared" si="78"/>
         <v>0A</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="11"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="16"/>
       <c r="T55" s="2">
         <v>10</v>
       </c>
@@ -6790,22 +6766,22 @@
         <f t="shared" si="78"/>
         <v>0B</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="11"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="16"/>
       <c r="T56" s="2">
         <v>11</v>
       </c>
@@ -6957,22 +6933,22 @@
         <f t="shared" si="78"/>
         <v>0C</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="11"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="16"/>
       <c r="T57" s="2">
         <v>12</v>
       </c>
@@ -7124,22 +7100,22 @@
         <f t="shared" si="78"/>
         <v>0D</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="11"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="16"/>
       <c r="T58" s="2">
         <v>13</v>
       </c>
@@ -7291,22 +7267,22 @@
         <f t="shared" si="78"/>
         <v>0E</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="14"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="19"/>
       <c r="T59" s="2">
         <v>14</v>
       </c>
@@ -7458,25 +7434,25 @@
         <f t="shared" si="78"/>
         <v>0F</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="18" t="s">
-        <v>67</v>
+      <c r="C60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="T60" s="2">
         <v>15</v>
@@ -7622,646 +7598,655 @@
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="6"/>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB67" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC67" s="6">
         <v>4</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5" t="s">
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="6"/>
+      <c r="AK67" s="6"/>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A68" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="19"/>
-      <c r="AA65" s="19"/>
-      <c r="AB65" s="19"/>
-      <c r="AC65" s="19"/>
-      <c r="AD65" s="19"/>
-      <c r="AE65" s="19"/>
-      <c r="AF65" s="19"/>
-      <c r="AG65" s="19"/>
-      <c r="AH65" s="19"/>
-      <c r="AI65" s="19"/>
-      <c r="AJ65" s="19"/>
-      <c r="AK65" s="19"/>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A66" s="5" t="s">
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="6">
         <v>5</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="19"/>
-      <c r="AA66" s="19"/>
-      <c r="AB66" s="19"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19"/>
-      <c r="AE66" s="19"/>
-      <c r="AF66" s="19"/>
-      <c r="AG66" s="19"/>
-      <c r="AH66" s="19"/>
-      <c r="AI66" s="19"/>
-      <c r="AJ66" s="19"/>
-      <c r="AK66" s="19"/>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="5" t="s">
+      <c r="AA68" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB68" s="6">
+        <v>7</v>
+      </c>
+      <c r="AC68" s="6">
+        <v>8</v>
+      </c>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6"/>
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="6"/>
+      <c r="AJ68" s="6"/>
+      <c r="AK68" s="6"/>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A69" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="19">
-        <v>1</v>
-      </c>
-      <c r="AA67" s="19">
-        <v>2</v>
-      </c>
-      <c r="AB67" s="19">
-        <v>3</v>
-      </c>
-      <c r="AC67" s="19">
-        <v>4</v>
-      </c>
-      <c r="AD67" s="19"/>
-      <c r="AE67" s="19"/>
-      <c r="AF67" s="19"/>
-      <c r="AG67" s="19"/>
-      <c r="AH67" s="19"/>
-      <c r="AI67" s="19"/>
-      <c r="AJ67" s="19"/>
-      <c r="AK67" s="19"/>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="5" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="6">
+        <v>9</v>
+      </c>
+      <c r="AA69" s="6">
+        <v>10</v>
+      </c>
+      <c r="AB69" s="6">
+        <v>11</v>
+      </c>
+      <c r="AC69" s="6">
+        <v>12</v>
+      </c>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A70" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="19">
-        <v>5</v>
-      </c>
-      <c r="AA68" s="19">
-        <v>6</v>
-      </c>
-      <c r="AB68" s="19">
-        <v>7</v>
-      </c>
-      <c r="AC68" s="19">
-        <v>8</v>
-      </c>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="19"/>
-      <c r="AG68" s="19"/>
-      <c r="AH68" s="19"/>
-      <c r="AI68" s="19"/>
-      <c r="AJ68" s="19"/>
-      <c r="AK68" s="19"/>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="5" t="s">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="6">
+        <v>13</v>
+      </c>
+      <c r="AA70" s="6">
+        <v>14</v>
+      </c>
+      <c r="AB70" s="6">
+        <v>15</v>
+      </c>
+      <c r="AC70" s="6">
+        <v>16</v>
+      </c>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6"/>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A71" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="19">
-        <v>9</v>
-      </c>
-      <c r="AA69" s="19">
-        <v>10</v>
-      </c>
-      <c r="AB69" s="19">
-        <v>11</v>
-      </c>
-      <c r="AC69" s="19">
-        <v>12</v>
-      </c>
-      <c r="AD69" s="19"/>
-      <c r="AE69" s="19"/>
-      <c r="AF69" s="19"/>
-      <c r="AG69" s="19"/>
-      <c r="AH69" s="19"/>
-      <c r="AI69" s="19"/>
-      <c r="AJ69" s="19"/>
-      <c r="AK69" s="19"/>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="5" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="6">
+        <v>17</v>
+      </c>
+      <c r="AA71" s="6">
+        <v>18</v>
+      </c>
+      <c r="AB71" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC71" s="6">
+        <v>20</v>
+      </c>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="6"/>
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6"/>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A72" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="19">
-        <v>13</v>
-      </c>
-      <c r="AA70" s="19">
-        <v>14</v>
-      </c>
-      <c r="AB70" s="19">
-        <v>15</v>
-      </c>
-      <c r="AC70" s="19">
-        <v>16</v>
-      </c>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="19"/>
-      <c r="AF70" s="19"/>
-      <c r="AG70" s="19"/>
-      <c r="AH70" s="19"/>
-      <c r="AI70" s="19"/>
-      <c r="AJ70" s="19"/>
-      <c r="AK70" s="19"/>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="5" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="6">
+        <v>21</v>
+      </c>
+      <c r="AA72" s="6">
+        <v>22</v>
+      </c>
+      <c r="AB72" s="6">
+        <v>23</v>
+      </c>
+      <c r="AC72" s="6">
+        <v>24</v>
+      </c>
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="6"/>
+      <c r="AF72" s="6"/>
+      <c r="AG72" s="6"/>
+      <c r="AH72" s="6"/>
+      <c r="AI72" s="6"/>
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="6"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A73" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="19">
-        <v>17</v>
-      </c>
-      <c r="AA71" s="19">
-        <v>18</v>
-      </c>
-      <c r="AB71" s="19">
-        <v>19</v>
-      </c>
-      <c r="AC71" s="19">
-        <v>20</v>
-      </c>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="19"/>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="19"/>
-      <c r="AH71" s="19"/>
-      <c r="AI71" s="19"/>
-      <c r="AJ71" s="19"/>
-      <c r="AK71" s="19"/>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="5" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="6">
+        <v>25</v>
+      </c>
+      <c r="AA73" s="6">
+        <v>26</v>
+      </c>
+      <c r="AB73" s="6">
+        <v>27</v>
+      </c>
+      <c r="AC73" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A74" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="19">
-        <v>21</v>
-      </c>
-      <c r="AA72" s="19">
-        <v>22</v>
-      </c>
-      <c r="AB72" s="19">
-        <v>23</v>
-      </c>
-      <c r="AC72" s="19">
-        <v>24</v>
-      </c>
-      <c r="AD72" s="19"/>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="19"/>
-      <c r="AH72" s="19"/>
-      <c r="AI72" s="19"/>
-      <c r="AJ72" s="19"/>
-      <c r="AK72" s="19"/>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="5" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="6">
+        <v>29</v>
+      </c>
+      <c r="AA74" s="6">
+        <v>30</v>
+      </c>
+      <c r="AB74" s="6">
+        <v>31</v>
+      </c>
+      <c r="AC74" s="6">
+        <v>32</v>
+      </c>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="6"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="19">
-        <v>25</v>
-      </c>
-      <c r="AA73" s="19">
-        <v>26</v>
-      </c>
-      <c r="AB73" s="19">
-        <v>27</v>
-      </c>
-      <c r="AC73" s="19">
-        <v>28</v>
-      </c>
-      <c r="AD73" s="19"/>
-      <c r="AE73" s="19"/>
-      <c r="AF73" s="19"/>
-      <c r="AG73" s="19"/>
-      <c r="AH73" s="19"/>
-      <c r="AI73" s="19"/>
-      <c r="AJ73" s="19"/>
-      <c r="AK73" s="19"/>
-    </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="19">
-        <v>29</v>
-      </c>
-      <c r="AA74" s="19">
-        <v>30</v>
-      </c>
-      <c r="AB74" s="19">
-        <v>31</v>
-      </c>
-      <c r="AC74" s="19">
-        <v>32</v>
-      </c>
-      <c r="AD74" s="19"/>
-      <c r="AE74" s="19"/>
-      <c r="AF74" s="19"/>
-      <c r="AG74" s="19"/>
-      <c r="AH74" s="19"/>
-      <c r="AI74" s="19"/>
-      <c r="AJ74" s="19"/>
-      <c r="AK74" s="19"/>
-    </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="19">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="6">
         <v>33</v>
       </c>
-      <c r="AA75" s="19">
+      <c r="AA75" s="6">
         <v>34</v>
       </c>
-      <c r="AB75" s="19">
+      <c r="AB75" s="6">
         <v>35</v>
       </c>
-      <c r="AC75" s="19">
+      <c r="AC75" s="6">
         <v>36</v>
       </c>
-      <c r="AD75" s="19"/>
-      <c r="AE75" s="19"/>
-      <c r="AF75" s="19"/>
-      <c r="AG75" s="19"/>
-      <c r="AH75" s="19"/>
-      <c r="AI75" s="19"/>
-      <c r="AJ75" s="19"/>
-      <c r="AK75" s="19"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6"/>
+      <c r="AK75" s="6"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AD76" s="19"/>
-      <c r="AE76" s="19"/>
-      <c r="AF76" s="19"/>
-      <c r="AG76" s="19"/>
-      <c r="AH76" s="19"/>
-      <c r="AI76" s="19"/>
-      <c r="AJ76" s="19"/>
-      <c r="AK76" s="19"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="6"/>
+      <c r="AI76" s="6"/>
+      <c r="AJ76" s="6"/>
+      <c r="AK76" s="6"/>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AD77" s="19"/>
-      <c r="AE77" s="19"/>
-      <c r="AF77" s="19"/>
-      <c r="AG77" s="19"/>
-      <c r="AH77" s="19"/>
-      <c r="AI77" s="19"/>
-      <c r="AJ77" s="19"/>
-      <c r="AK77" s="19"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="6"/>
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AD78" s="19"/>
-      <c r="AE78" s="19"/>
-      <c r="AF78" s="19"/>
-      <c r="AG78" s="19"/>
-      <c r="AH78" s="19"/>
-      <c r="AI78" s="19"/>
-      <c r="AJ78" s="19"/>
-      <c r="AK78" s="19"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AD79" s="19"/>
-      <c r="AE79" s="19"/>
-      <c r="AF79" s="19"/>
-      <c r="AG79" s="19"/>
-      <c r="AH79" s="19"/>
-      <c r="AI79" s="19"/>
-      <c r="AJ79" s="19"/>
-      <c r="AK79" s="19"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AD80" s="19"/>
-      <c r="AE80" s="19"/>
-      <c r="AF80" s="19"/>
-      <c r="AG80" s="19"/>
-      <c r="AH80" s="19"/>
-      <c r="AI80" s="19"/>
-      <c r="AJ80" s="19"/>
-      <c r="AK80" s="19"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="6"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="6"/>
+      <c r="AI80" s="6"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6"/>
     </row>
     <row r="81" spans="30:37" x14ac:dyDescent="0.4">
-      <c r="AD81" s="19"/>
-      <c r="AE81" s="19"/>
-      <c r="AF81" s="19"/>
-      <c r="AG81" s="19"/>
-      <c r="AH81" s="19"/>
-      <c r="AI81" s="19"/>
-      <c r="AJ81" s="19"/>
-      <c r="AK81" s="19"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="6"/>
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6"/>
     </row>
     <row r="82" spans="30:37" x14ac:dyDescent="0.4">
-      <c r="AD82" s="19"/>
-      <c r="AE82" s="19"/>
-      <c r="AF82" s="19"/>
-      <c r="AG82" s="19"/>
-      <c r="AH82" s="19"/>
-      <c r="AI82" s="19"/>
-      <c r="AJ82" s="19"/>
-      <c r="AK82" s="19"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+      <c r="AF82" s="6"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6"/>
+      <c r="AK82" s="6"/>
     </row>
     <row r="83" spans="30:37" x14ac:dyDescent="0.4">
-      <c r="AD83" s="19"/>
-      <c r="AE83" s="19"/>
-      <c r="AF83" s="19"/>
-      <c r="AG83" s="19"/>
-      <c r="AH83" s="19"/>
-      <c r="AI83" s="19"/>
-      <c r="AJ83" s="19"/>
-      <c r="AK83" s="19"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="S74:Y74"/>
-    <mergeCell ref="S75:Y75"/>
-    <mergeCell ref="S69:Y69"/>
-    <mergeCell ref="S70:Y70"/>
-    <mergeCell ref="S71:Y71"/>
-    <mergeCell ref="S72:Y72"/>
-    <mergeCell ref="S73:Y73"/>
-    <mergeCell ref="A74:R74"/>
-    <mergeCell ref="A75:R75"/>
-    <mergeCell ref="A69:R69"/>
-    <mergeCell ref="A70:R70"/>
-    <mergeCell ref="A71:R71"/>
-    <mergeCell ref="A72:R72"/>
-    <mergeCell ref="A73:R73"/>
+  <mergeCells count="45">
+    <mergeCell ref="C9:R10"/>
+    <mergeCell ref="C5:R6"/>
+    <mergeCell ref="C29:R30"/>
+    <mergeCell ref="C33:R34"/>
+    <mergeCell ref="C37:R38"/>
+    <mergeCell ref="C17:R18"/>
+    <mergeCell ref="C13:R14"/>
+    <mergeCell ref="C60:Q60"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="C35:R36"/>
+    <mergeCell ref="C31:R32"/>
+    <mergeCell ref="C27:R28"/>
+    <mergeCell ref="A42:R42"/>
+    <mergeCell ref="C39:R40"/>
+    <mergeCell ref="C25:R26"/>
+    <mergeCell ref="C45:Q45"/>
+    <mergeCell ref="C46:Q46"/>
+    <mergeCell ref="C47:R59"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C7:R8"/>
+    <mergeCell ref="C11:R12"/>
+    <mergeCell ref="C15:R16"/>
+    <mergeCell ref="C19:R20"/>
     <mergeCell ref="A65:R65"/>
     <mergeCell ref="A66:R66"/>
     <mergeCell ref="A67:R67"/>
@@ -8270,37 +8255,20 @@
     <mergeCell ref="S66:Y66"/>
     <mergeCell ref="S67:Y67"/>
     <mergeCell ref="S68:Y68"/>
-    <mergeCell ref="C45:Q45"/>
-    <mergeCell ref="C46:Q46"/>
-    <mergeCell ref="C47:R59"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:R8"/>
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="C11:R12"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="C15:R16"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C19:R20"/>
-    <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C60:Q60"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="C37:Q37"/>
-    <mergeCell ref="C38:Q38"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C35:R36"/>
-    <mergeCell ref="C31:R32"/>
-    <mergeCell ref="C27:R28"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C33:Q33"/>
-    <mergeCell ref="A42:R42"/>
-    <mergeCell ref="C39:R40"/>
-    <mergeCell ref="C34:Q34"/>
+    <mergeCell ref="A74:R74"/>
+    <mergeCell ref="A75:R75"/>
+    <mergeCell ref="A69:R69"/>
+    <mergeCell ref="A70:R70"/>
+    <mergeCell ref="A71:R71"/>
+    <mergeCell ref="A72:R72"/>
+    <mergeCell ref="A73:R73"/>
+    <mergeCell ref="S74:Y74"/>
+    <mergeCell ref="S75:Y75"/>
+    <mergeCell ref="S69:Y69"/>
+    <mergeCell ref="S70:Y70"/>
+    <mergeCell ref="S71:Y71"/>
+    <mergeCell ref="S72:Y72"/>
+    <mergeCell ref="S73:Y73"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11648,7 +11616,7 @@
     </row>
     <row r="260" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F260" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -11725,230 +11693,230 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>44</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>45</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.4">

--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,307 +8,159 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D23E9B-C650-49CF-84E1-77A63AE46767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2374AE7F-8AC8-4FBD-876B-5B0342DA7FCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>HEX</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DIN</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ROM_BLOCK_MAX - 1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ROM_BLOCK_MAX - 2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LPM</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>STB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AMP</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DRA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DPS1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DPS2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DPS3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DPS4</t>
-  </si>
-  <si>
-    <t>DPS5</t>
-  </si>
-  <si>
-    <t>DPS6</t>
-  </si>
-  <si>
-    <t>DPS7</t>
-  </si>
-  <si>
-    <t>DPS8</t>
-  </si>
-  <si>
-    <t>DPS9</t>
-  </si>
-  <si>
-    <t>DPS10</t>
-  </si>
-  <si>
-    <t>DPS11</t>
-  </si>
-  <si>
-    <t>DPS12</t>
-  </si>
-  <si>
-    <t>DPS13</t>
-  </si>
-  <si>
-    <t>DPS14</t>
-  </si>
-  <si>
-    <t>DPS15</t>
-  </si>
-  <si>
-    <t>DSA1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DSA2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DSA3</t>
-  </si>
-  <si>
-    <t>DSA4</t>
-  </si>
-  <si>
-    <t>DSA5</t>
-  </si>
-  <si>
-    <t>DSA6</t>
-  </si>
-  <si>
-    <t>DSA7</t>
-  </si>
-  <si>
-    <t>DSA8</t>
-  </si>
-  <si>
-    <t>DSA9</t>
-  </si>
-  <si>
-    <t>DSA10</t>
-  </si>
-  <si>
-    <t>DSA11</t>
-  </si>
-  <si>
-    <t>DSA12</t>
-  </si>
-  <si>
-    <t>DSA13</t>
-  </si>
-  <si>
-    <t>DSA14</t>
-  </si>
-  <si>
-    <t>DSA15</t>
-  </si>
-  <si>
-    <t>BYT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BIT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LNA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D4</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DSA0</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DSA1-15</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DPS1-15</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Reservation</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Reservation</t>
   </si>
   <si>
     <t>ROM_BLOCK_USER</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Reservation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ROM_BLOCK_MAX - 3</t>
-  </si>
-  <si>
-    <t>ROM_BLOCK_MAX - 4</t>
-  </si>
-  <si>
-    <t>ROM_BLOCK_MAX - 5</t>
-  </si>
-  <si>
-    <t>ROM_BLOCK_MAX - 6</t>
-  </si>
-  <si>
-    <t>ROM_BLOCK_MAX - 7</t>
-  </si>
-  <si>
-    <t>ROM_BLOCK_MAX - 8</t>
-  </si>
-  <si>
-    <t>ROM_BLOCK_MAX - 9</t>
-  </si>
-  <si>
-    <t>ROM_BLOCK_MAX - 10</t>
-  </si>
-  <si>
-    <t>ROM_BLOCK_MAX - 11</t>
-  </si>
-  <si>
-    <t>SYSTEM DAT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DEFAULT MEMORY(0) SPACE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USER MEMORY</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>LEN</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SERIAL NUMBER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000000004</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>STATE0</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>STATE1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>STATE2</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>STATE3</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>STATE BLOCKNUM-0</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>STATE BLOCKNUM-1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>STATE BLOCKNUM-2</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>STATE BLOCKNUM-3</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LPM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LNA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMP</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -322,18 +174,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -482,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,11 +338,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -859,19 +702,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DC74D-9417-4124-AE6F-360A4C6083BD}">
   <dimension ref="A2:BD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:R20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="3.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="4.875" style="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
     <col min="20" max="20" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.25" style="1" bestFit="1" customWidth="1"/>
@@ -882,34 +721,31 @@
     <col min="38" max="38" width="9" style="1"/>
     <col min="39" max="39" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="50" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="4.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="56" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
+      <c r="A2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -1163,24 +999,24 @@
         <f>DEC2HEX(A5,2)</f>
         <v>00</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="13"/>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="12"/>
       <c r="T5" s="2">
         <v>0</v>
       </c>
@@ -1261,22 +1097,22 @@
         <f t="shared" ref="B6:B20" si="3">DEC2HEX(A6,2)</f>
         <v>01</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
       <c r="T6" s="2">
         <v>1</v>
       </c>
@@ -1357,24 +1193,24 @@
         <f t="shared" si="3"/>
         <v>02</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12"/>
       <c r="T7" s="2">
         <v>2</v>
       </c>
@@ -1455,22 +1291,22 @@
         <f t="shared" si="3"/>
         <v>03</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
       <c r="T8" s="2">
         <v>3</v>
       </c>
@@ -1551,24 +1387,24 @@
         <f t="shared" si="3"/>
         <v>04</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="13"/>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="12"/>
       <c r="T9" s="2">
         <v>4</v>
       </c>
@@ -1649,22 +1485,22 @@
         <f t="shared" si="3"/>
         <v>05</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
       <c r="T10" s="2">
         <v>5</v>
       </c>
@@ -1745,24 +1581,24 @@
         <f t="shared" si="3"/>
         <v>06</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
+      <c r="C11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
       <c r="T11" s="2">
         <v>6</v>
       </c>
@@ -1843,22 +1679,22 @@
         <f t="shared" si="3"/>
         <v>07</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
       <c r="T12" s="2">
         <v>7</v>
       </c>
@@ -1939,24 +1775,24 @@
         <f t="shared" si="3"/>
         <v>08</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
       <c r="T13" s="2">
         <v>8</v>
       </c>
@@ -2037,22 +1873,22 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18"/>
       <c r="T14" s="2">
         <v>9</v>
       </c>
@@ -2133,24 +1969,24 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="13"/>
+      <c r="C15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="T15" s="2">
         <v>10</v>
       </c>
@@ -2231,22 +2067,22 @@
         <f t="shared" si="3"/>
         <v>0B</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="18"/>
       <c r="T16" s="2">
         <v>11</v>
       </c>
@@ -2327,24 +2163,24 @@
         <f t="shared" si="3"/>
         <v>0C</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="13"/>
+      <c r="C17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="T17" s="2">
         <v>12</v>
       </c>
@@ -2425,22 +2261,22 @@
         <f t="shared" si="3"/>
         <v>0D</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
       <c r="T18" s="2">
         <v>13</v>
       </c>
@@ -2521,24 +2357,24 @@
         <f t="shared" si="3"/>
         <v>0E</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="12"/>
       <c r="T19" s="2">
         <v>14</v>
       </c>
@@ -2619,22 +2455,22 @@
         <f t="shared" si="3"/>
         <v>0F</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="19"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
       <c r="T20" s="2">
         <v>15</v>
       </c>
@@ -2708,26 +2544,26 @@
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
@@ -2981,24 +2817,24 @@
         <f>DEC2HEX(A25,2)</f>
         <v>00</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="13"/>
+      <c r="C25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="12"/>
       <c r="T25" s="2">
         <v>0</v>
       </c>
@@ -3079,22 +2915,22 @@
         <f t="shared" ref="B26:B40" si="37">DEC2HEX(A26,2)</f>
         <v>01</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="19"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="18"/>
       <c r="T26" s="2">
         <v>1</v>
       </c>
@@ -3175,24 +3011,24 @@
         <f t="shared" si="37"/>
         <v>02</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
       <c r="T27" s="2">
         <v>2</v>
       </c>
@@ -3273,22 +3109,22 @@
         <f t="shared" si="37"/>
         <v>03</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
       <c r="T28" s="2">
         <v>3</v>
       </c>
@@ -3369,24 +3205,24 @@
         <f t="shared" si="37"/>
         <v>04</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="13"/>
+      <c r="C29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12"/>
       <c r="T29" s="2">
         <v>4</v>
       </c>
@@ -3467,22 +3303,22 @@
         <f t="shared" si="37"/>
         <v>05</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="19"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="18"/>
       <c r="T30" s="2">
         <v>5</v>
       </c>
@@ -3563,24 +3399,24 @@
         <f t="shared" si="37"/>
         <v>06</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
       <c r="T31" s="2">
         <v>6</v>
       </c>
@@ -3661,22 +3497,22 @@
         <f t="shared" si="37"/>
         <v>07</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
       <c r="T32" s="2">
         <v>7</v>
       </c>
@@ -3757,24 +3593,24 @@
         <f t="shared" si="37"/>
         <v>08</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="13"/>
+      <c r="C33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12"/>
       <c r="T33" s="2">
         <v>8</v>
       </c>
@@ -3855,22 +3691,22 @@
         <f t="shared" si="37"/>
         <v>09</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="19"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="18"/>
       <c r="T34" s="2">
         <v>9</v>
       </c>
@@ -3951,24 +3787,24 @@
         <f t="shared" si="37"/>
         <v>0A</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="C35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
       <c r="T35" s="2">
         <v>10</v>
       </c>
@@ -4049,22 +3885,22 @@
         <f t="shared" si="37"/>
         <v>0B</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
       <c r="T36" s="2">
         <v>11</v>
       </c>
@@ -4145,24 +3981,24 @@
         <f t="shared" si="37"/>
         <v>0C</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="13"/>
+      <c r="C37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
       <c r="T37" s="2">
         <v>12</v>
       </c>
@@ -4243,22 +4079,22 @@
         <f t="shared" si="37"/>
         <v>0D</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="19"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="18"/>
       <c r="T38" s="2">
         <v>13</v>
       </c>
@@ -4339,24 +4175,24 @@
         <f t="shared" si="37"/>
         <v>0E</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
       <c r="T39" s="2">
         <v>14</v>
       </c>
@@ -4437,22 +4273,22 @@
         <f t="shared" si="37"/>
         <v>0F</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
       <c r="T40" s="2">
         <v>15</v>
       </c>
@@ -4526,26 +4362,26 @@
       </c>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
@@ -4919,25 +4755,25 @@
         <f>DEC2HEX(A45,2)</f>
         <v>00</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="10"/>
+      <c r="C45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45" s="2">
         <v>0</v>
@@ -5090,25 +4926,25 @@
         <f t="shared" ref="B46:B60" si="78">DEC2HEX(A46,2)</f>
         <v>01</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="10"/>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="T46" s="2">
         <v>1</v>
@@ -5261,24 +5097,24 @@
         <f t="shared" si="78"/>
         <v>02</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="13"/>
+      <c r="C47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="12"/>
       <c r="T47" s="2">
         <v>2</v>
       </c>
@@ -5430,22 +5266,22 @@
         <f t="shared" si="78"/>
         <v>03</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="16"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="15"/>
       <c r="T48" s="2">
         <v>3</v>
       </c>
@@ -5597,22 +5433,22 @@
         <f t="shared" si="78"/>
         <v>04</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="16"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="15"/>
       <c r="T49" s="2">
         <v>4</v>
       </c>
@@ -5764,22 +5600,22 @@
         <f t="shared" si="78"/>
         <v>05</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="16"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="15"/>
       <c r="T50" s="2">
         <v>5</v>
       </c>
@@ -5931,22 +5767,22 @@
         <f t="shared" si="78"/>
         <v>06</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="16"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="15"/>
       <c r="T51" s="2">
         <v>6</v>
       </c>
@@ -6098,22 +5934,22 @@
         <f t="shared" si="78"/>
         <v>07</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="16"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="15"/>
       <c r="T52" s="2">
         <v>7</v>
       </c>
@@ -6265,22 +6101,22 @@
         <f t="shared" si="78"/>
         <v>08</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="16"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="15"/>
       <c r="T53" s="2">
         <v>8</v>
       </c>
@@ -6432,22 +6268,22 @@
         <f t="shared" si="78"/>
         <v>09</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="16"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="15"/>
       <c r="T54" s="2">
         <v>9</v>
       </c>
@@ -6599,22 +6435,22 @@
         <f t="shared" si="78"/>
         <v>0A</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="16"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="15"/>
       <c r="T55" s="2">
         <v>10</v>
       </c>
@@ -6766,22 +6602,22 @@
         <f t="shared" si="78"/>
         <v>0B</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="16"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="15"/>
       <c r="T56" s="2">
         <v>11</v>
       </c>
@@ -6933,22 +6769,22 @@
         <f t="shared" si="78"/>
         <v>0C</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="16"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="15"/>
       <c r="T57" s="2">
         <v>12</v>
       </c>
@@ -7100,22 +6936,22 @@
         <f t="shared" si="78"/>
         <v>0D</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="16"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="15"/>
       <c r="T58" s="2">
         <v>13</v>
       </c>
@@ -7267,22 +7103,22 @@
         <f t="shared" si="78"/>
         <v>0E</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="19"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="18"/>
       <c r="T59" s="2">
         <v>14</v>
       </c>
@@ -7434,25 +7270,25 @@
         <f t="shared" si="78"/>
         <v>0F</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="5" t="s">
-        <v>65</v>
+      <c r="C60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="T60" s="2">
         <v>15</v>
@@ -7597,633 +7433,245 @@
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A65" s="7" t="s">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.4">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3">
+        <v>6</v>
+      </c>
+      <c r="E63" s="3">
+        <v>5</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4</v>
+      </c>
+      <c r="G63" s="3">
+        <v>3</v>
+      </c>
+      <c r="H63" s="3">
         <v>2</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="6"/>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="6"/>
-      <c r="AF65" s="6"/>
-      <c r="AG65" s="6"/>
-      <c r="AH65" s="6"/>
-      <c r="AI65" s="6"/>
-      <c r="AJ65" s="6"/>
-      <c r="AK65" s="6"/>
+      <c r="I63" s="3">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="6"/>
-      <c r="AE66" s="6"/>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="6"/>
-      <c r="AH66" s="6"/>
-      <c r="AI66" s="6"/>
-      <c r="AJ66" s="6"/>
-      <c r="AK66" s="6"/>
+    <row r="64" spans="1:56" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA67" s="6">
-        <v>2</v>
-      </c>
-      <c r="AB67" s="6">
-        <v>3</v>
-      </c>
-      <c r="AC67" s="6">
-        <v>4</v>
-      </c>
-      <c r="AD67" s="6"/>
-      <c r="AE67" s="6"/>
-      <c r="AF67" s="6"/>
-      <c r="AG67" s="6"/>
-      <c r="AH67" s="6"/>
-      <c r="AI67" s="6"/>
-      <c r="AJ67" s="6"/>
-      <c r="AK67" s="6"/>
+    <row r="65" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA68" s="6">
-        <v>6</v>
-      </c>
-      <c r="AB68" s="6">
-        <v>7</v>
-      </c>
-      <c r="AC68" s="6">
-        <v>8</v>
-      </c>
-      <c r="AD68" s="6"/>
-      <c r="AE68" s="6"/>
-      <c r="AF68" s="6"/>
-      <c r="AG68" s="6"/>
-      <c r="AH68" s="6"/>
-      <c r="AI68" s="6"/>
-      <c r="AJ68" s="6"/>
-      <c r="AK68" s="6"/>
+    <row r="66" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="6">
-        <v>9</v>
-      </c>
-      <c r="AA69" s="6">
-        <v>10</v>
-      </c>
-      <c r="AB69" s="6">
-        <v>11</v>
-      </c>
-      <c r="AC69" s="6">
-        <v>12</v>
-      </c>
-      <c r="AD69" s="6"/>
-      <c r="AE69" s="6"/>
-      <c r="AF69" s="6"/>
-      <c r="AG69" s="6"/>
-      <c r="AH69" s="6"/>
-      <c r="AI69" s="6"/>
-      <c r="AJ69" s="6"/>
-      <c r="AK69" s="6"/>
+    <row r="67" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="7"/>
-      <c r="Z70" s="6">
-        <v>13</v>
-      </c>
-      <c r="AA70" s="6">
-        <v>14</v>
-      </c>
-      <c r="AB70" s="6">
-        <v>15</v>
-      </c>
-      <c r="AC70" s="6">
-        <v>16</v>
-      </c>
-      <c r="AD70" s="6"/>
-      <c r="AE70" s="6"/>
-      <c r="AF70" s="6"/>
-      <c r="AG70" s="6"/>
-      <c r="AH70" s="6"/>
-      <c r="AI70" s="6"/>
-      <c r="AJ70" s="6"/>
-      <c r="AK70" s="6"/>
+    <row r="68" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
-      <c r="W71" s="7"/>
-      <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
-      <c r="Z71" s="6">
-        <v>17</v>
-      </c>
-      <c r="AA71" s="6">
-        <v>18</v>
-      </c>
-      <c r="AB71" s="6">
-        <v>19</v>
-      </c>
-      <c r="AC71" s="6">
-        <v>20</v>
-      </c>
-      <c r="AD71" s="6"/>
-      <c r="AE71" s="6"/>
-      <c r="AF71" s="6"/>
-      <c r="AG71" s="6"/>
-      <c r="AH71" s="6"/>
-      <c r="AI71" s="6"/>
-      <c r="AJ71" s="6"/>
-      <c r="AK71" s="6"/>
+    <row r="69" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
-      <c r="Z72" s="6">
-        <v>21</v>
-      </c>
-      <c r="AA72" s="6">
-        <v>22</v>
-      </c>
-      <c r="AB72" s="6">
-        <v>23</v>
-      </c>
-      <c r="AC72" s="6">
-        <v>24</v>
-      </c>
-      <c r="AD72" s="6"/>
-      <c r="AE72" s="6"/>
-      <c r="AF72" s="6"/>
-      <c r="AG72" s="6"/>
-      <c r="AH72" s="6"/>
-      <c r="AI72" s="6"/>
-      <c r="AJ72" s="6"/>
-      <c r="AK72" s="6"/>
+    <row r="70" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="6">
-        <v>25</v>
-      </c>
-      <c r="AA73" s="6">
-        <v>26</v>
-      </c>
-      <c r="AB73" s="6">
-        <v>27</v>
-      </c>
-      <c r="AC73" s="6">
-        <v>28</v>
-      </c>
-      <c r="AD73" s="6"/>
-      <c r="AE73" s="6"/>
-      <c r="AF73" s="6"/>
-      <c r="AG73" s="6"/>
-      <c r="AH73" s="6"/>
-      <c r="AI73" s="6"/>
-      <c r="AJ73" s="6"/>
-      <c r="AK73" s="6"/>
+    <row r="71" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="6">
-        <v>29</v>
-      </c>
-      <c r="AA74" s="6">
-        <v>30</v>
-      </c>
-      <c r="AB74" s="6">
-        <v>31</v>
-      </c>
-      <c r="AC74" s="6">
-        <v>32</v>
-      </c>
-      <c r="AD74" s="6"/>
-      <c r="AE74" s="6"/>
-      <c r="AF74" s="6"/>
-      <c r="AG74" s="6"/>
-      <c r="AH74" s="6"/>
-      <c r="AI74" s="6"/>
-      <c r="AJ74" s="6"/>
-      <c r="AK74" s="6"/>
+    <row r="72" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
-      <c r="Z75" s="6">
-        <v>33</v>
-      </c>
-      <c r="AA75" s="6">
-        <v>34</v>
-      </c>
-      <c r="AB75" s="6">
-        <v>35</v>
-      </c>
-      <c r="AC75" s="6">
-        <v>36</v>
-      </c>
-      <c r="AD75" s="6"/>
-      <c r="AE75" s="6"/>
-      <c r="AF75" s="6"/>
-      <c r="AG75" s="6"/>
-      <c r="AH75" s="6"/>
-      <c r="AI75" s="6"/>
-      <c r="AJ75" s="6"/>
-      <c r="AK75" s="6"/>
+    <row r="73" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="5"/>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AD76" s="6"/>
-      <c r="AE76" s="6"/>
-      <c r="AF76" s="6"/>
-      <c r="AG76" s="6"/>
-      <c r="AH76" s="6"/>
-      <c r="AI76" s="6"/>
-      <c r="AJ76" s="6"/>
-      <c r="AK76" s="6"/>
+    <row r="74" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AD77" s="6"/>
-      <c r="AE77" s="6"/>
-      <c r="AF77" s="6"/>
-      <c r="AG77" s="6"/>
-      <c r="AH77" s="6"/>
-      <c r="AI77" s="6"/>
-      <c r="AJ77" s="6"/>
-      <c r="AK77" s="6"/>
+    <row r="75" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AD78" s="6"/>
-      <c r="AE78" s="6"/>
-      <c r="AF78" s="6"/>
-      <c r="AG78" s="6"/>
-      <c r="AH78" s="6"/>
-      <c r="AI78" s="6"/>
-      <c r="AJ78" s="6"/>
-      <c r="AK78" s="6"/>
+    <row r="76" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AD79" s="6"/>
-      <c r="AE79" s="6"/>
-      <c r="AF79" s="6"/>
-      <c r="AG79" s="6"/>
-      <c r="AH79" s="6"/>
-      <c r="AI79" s="6"/>
-      <c r="AJ79" s="6"/>
-      <c r="AK79" s="6"/>
+    <row r="77" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+      <c r="AK77" s="5"/>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="AD80" s="6"/>
-      <c r="AE80" s="6"/>
-      <c r="AF80" s="6"/>
-      <c r="AG80" s="6"/>
-      <c r="AH80" s="6"/>
-      <c r="AI80" s="6"/>
-      <c r="AJ80" s="6"/>
-      <c r="AK80" s="6"/>
+    <row r="78" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+    </row>
+    <row r="79" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+    </row>
+    <row r="80" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
     </row>
     <row r="81" spans="30:37" x14ac:dyDescent="0.4">
-      <c r="AD81" s="6"/>
-      <c r="AE81" s="6"/>
-      <c r="AF81" s="6"/>
-      <c r="AG81" s="6"/>
-      <c r="AH81" s="6"/>
-      <c r="AI81" s="6"/>
-      <c r="AJ81" s="6"/>
-      <c r="AK81" s="6"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+      <c r="AJ81" s="5"/>
+      <c r="AK81" s="5"/>
     </row>
     <row r="82" spans="30:37" x14ac:dyDescent="0.4">
-      <c r="AD82" s="6"/>
-      <c r="AE82" s="6"/>
-      <c r="AF82" s="6"/>
-      <c r="AG82" s="6"/>
-      <c r="AH82" s="6"/>
-      <c r="AI82" s="6"/>
-      <c r="AJ82" s="6"/>
-      <c r="AK82" s="6"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
     </row>
     <row r="83" spans="30:37" x14ac:dyDescent="0.4">
-      <c r="AD83" s="6"/>
-      <c r="AE83" s="6"/>
-      <c r="AF83" s="6"/>
-      <c r="AG83" s="6"/>
-      <c r="AH83" s="6"/>
-      <c r="AI83" s="6"/>
-      <c r="AJ83" s="6"/>
-      <c r="AK83" s="6"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="23">
     <mergeCell ref="C9:R10"/>
     <mergeCell ref="C5:R6"/>
     <mergeCell ref="C29:R30"/>
@@ -8247,3686 +7695,9 @@
     <mergeCell ref="C11:R12"/>
     <mergeCell ref="C15:R16"/>
     <mergeCell ref="C19:R20"/>
-    <mergeCell ref="A65:R65"/>
-    <mergeCell ref="A66:R66"/>
-    <mergeCell ref="A67:R67"/>
-    <mergeCell ref="A68:R68"/>
-    <mergeCell ref="S65:Y65"/>
-    <mergeCell ref="S66:Y66"/>
-    <mergeCell ref="S67:Y67"/>
-    <mergeCell ref="S68:Y68"/>
-    <mergeCell ref="A74:R74"/>
-    <mergeCell ref="A75:R75"/>
-    <mergeCell ref="A69:R69"/>
-    <mergeCell ref="A70:R70"/>
-    <mergeCell ref="A71:R71"/>
-    <mergeCell ref="A72:R72"/>
-    <mergeCell ref="A73:R73"/>
-    <mergeCell ref="S74:Y74"/>
-    <mergeCell ref="S75:Y75"/>
-    <mergeCell ref="S69:Y69"/>
-    <mergeCell ref="S70:Y70"/>
-    <mergeCell ref="S71:Y71"/>
-    <mergeCell ref="S72:Y72"/>
-    <mergeCell ref="S73:Y73"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926D768E-8E9B-4088-96CA-6FE80232855F}">
-  <dimension ref="A1:F260"/>
-  <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E258" sqref="E258"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="str">
-        <f>DEC2HEX(A1,2)</f>
-        <v>00</v>
-      </c>
-      <c r="C1" t="str">
-        <f>B1</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <f>DEC2HEX(A2,2)</f>
-        <v>00</v>
-      </c>
-      <c r="C2" t="str">
-        <f>C1&amp;B2</f>
-        <v>0000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="str">
-        <f>DEC2HEX(A3,2)</f>
-        <v>00</v>
-      </c>
-      <c r="C3" t="str">
-        <f>C2&amp;B3</f>
-        <v>000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="str">
-        <f>DEC2HEX(A4,2)</f>
-        <v>00</v>
-      </c>
-      <c r="C4" t="str">
-        <f>C3&amp;B4</f>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B5:B68" si="0">DEC2HEX(A5,2)</f>
-        <v>00</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5:C68" si="1">C4&amp;B5</f>
-        <v>0000000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000000000000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000000000000202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000000000000000020202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000000000000202020202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000000000000000020202020202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000000000000202020202020202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000000000000000020202020202020202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000000000000202020202020202020202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000000000000000020202020202020202020202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000000000000202020202020202020202020202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>02</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000000000000000020202020202020202020202020202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000000000000202020202020202020202020202020020</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000000000000000020202020202020202020202020202002021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000000000000202020202020202020202020202020020212223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000000000000000020202020202020202020202020202002021222324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000000000000202020202020202020202020202020020212223242526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="1"/>
-        <v>00000000000000000000000000000000020202020202020202020202020202002021222324252627</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="1"/>
-        <v>000000000000000000000000000000000202020202020202020202020202020020212223242526272829</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>2A</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>2B</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>2C</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>2D</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>2E</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>2F</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F3031</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F30313233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F3031323334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F30313233343536</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F3031323334353637</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F30313233343536373839</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>3A</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>3B</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>3C</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>3D</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>3E</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>3F</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="str">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="1"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="str">
-        <f t="shared" ref="B69:B132" si="2">DEC2HEX(A69,2)</f>
-        <v>44</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" ref="C69:C132" si="3">C68&amp;B69</f>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041424344</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="str">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="str">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243444546</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="str">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041424344454647</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="str">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="str">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243444546474849</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="str">
-        <f t="shared" si="2"/>
-        <v>4A</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="str">
-        <f t="shared" si="2"/>
-        <v>4B</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="str">
-        <f t="shared" si="2"/>
-        <v>4C</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="str">
-        <f t="shared" si="2"/>
-        <v>4D</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="str">
-        <f t="shared" si="2"/>
-        <v>4E</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="str">
-        <f t="shared" si="2"/>
-        <v>4F</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="str">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="str">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="str">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="str">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="str">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051525354</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="str">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="str">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253545556</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="str">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051525354555657</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="str">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="C89" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="str">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253545556575859</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="str">
-        <f t="shared" si="2"/>
-        <v>5A</v>
-      </c>
-      <c r="C91" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="str">
-        <f t="shared" si="2"/>
-        <v>5B</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="str">
-        <f t="shared" si="2"/>
-        <v>5C</v>
-      </c>
-      <c r="C93" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="str">
-        <f t="shared" si="2"/>
-        <v>5D</v>
-      </c>
-      <c r="C94" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="str">
-        <f t="shared" si="2"/>
-        <v>5E</v>
-      </c>
-      <c r="C95" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="str">
-        <f t="shared" si="2"/>
-        <v>5F</v>
-      </c>
-      <c r="C96" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="C97" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="str">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="C98" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="str">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="C99" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="str">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="C100" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="str">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="C101" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061626364</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="str">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="C102" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="str">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="C103" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263646566</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="str">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="C104" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061626364656667</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="str">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="C105" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="str">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="C106" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263646566676869</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="str">
-        <f t="shared" si="2"/>
-        <v>6A</v>
-      </c>
-      <c r="C107" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="str">
-        <f t="shared" si="2"/>
-        <v>6B</v>
-      </c>
-      <c r="C108" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="str">
-        <f t="shared" si="2"/>
-        <v>6C</v>
-      </c>
-      <c r="C109" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="str">
-        <f t="shared" si="2"/>
-        <v>6D</v>
-      </c>
-      <c r="C110" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="str">
-        <f t="shared" si="2"/>
-        <v>6E</v>
-      </c>
-      <c r="C111" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="str">
-        <f t="shared" si="2"/>
-        <v>6F</v>
-      </c>
-      <c r="C112" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="str">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="C113" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="str">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="C114" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="str">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="C115" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="str">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="C116" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="str">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="C117" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071727374</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="str">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="C118" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="str">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="C119" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273747576</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="str">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="C120" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071727374757677</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="str">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="C121" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="str">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="C122" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273747576777879</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="str">
-        <f t="shared" si="2"/>
-        <v>7A</v>
-      </c>
-      <c r="C123" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="str">
-        <f t="shared" si="2"/>
-        <v>7B</v>
-      </c>
-      <c r="C124" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="str">
-        <f t="shared" si="2"/>
-        <v>7C</v>
-      </c>
-      <c r="C125" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="str">
-        <f t="shared" si="2"/>
-        <v>7D</v>
-      </c>
-      <c r="C126" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="str">
-        <f t="shared" si="2"/>
-        <v>7E</v>
-      </c>
-      <c r="C127" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="str">
-        <f t="shared" si="2"/>
-        <v>7F</v>
-      </c>
-      <c r="C128" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="str">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="C129" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="str">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="C130" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="str">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="C131" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="str">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="C132" t="str">
-        <f t="shared" si="3"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="str">
-        <f t="shared" ref="B133:B196" si="4">DEC2HEX(A133,2)</f>
-        <v>84</v>
-      </c>
-      <c r="C133" t="str">
-        <f t="shared" ref="C133:C196" si="5">C132&amp;B133</f>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081828384</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="str">
-        <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="C134" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="str">
-        <f t="shared" si="4"/>
-        <v>86</v>
-      </c>
-      <c r="C135" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283848586</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="str">
-        <f t="shared" si="4"/>
-        <v>87</v>
-      </c>
-      <c r="C136" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081828384858687</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="str">
-        <f t="shared" si="4"/>
-        <v>88</v>
-      </c>
-      <c r="C137" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="str">
-        <f t="shared" si="4"/>
-        <v>89</v>
-      </c>
-      <c r="C138" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283848586878889</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" t="str">
-        <f t="shared" si="4"/>
-        <v>8A</v>
-      </c>
-      <c r="C139" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="str">
-        <f t="shared" si="4"/>
-        <v>8B</v>
-      </c>
-      <c r="C140" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="str">
-        <f t="shared" si="4"/>
-        <v>8C</v>
-      </c>
-      <c r="C141" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="str">
-        <f t="shared" si="4"/>
-        <v>8D</v>
-      </c>
-      <c r="C142" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="str">
-        <f t="shared" si="4"/>
-        <v>8E</v>
-      </c>
-      <c r="C143" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="str">
-        <f t="shared" si="4"/>
-        <v>8F</v>
-      </c>
-      <c r="C144" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="str">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C145" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="str">
-        <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="C146" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="str">
-        <f t="shared" si="4"/>
-        <v>92</v>
-      </c>
-      <c r="C147" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="str">
-        <f t="shared" si="4"/>
-        <v>93</v>
-      </c>
-      <c r="C148" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" t="str">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="C149" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091929394</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="str">
-        <f t="shared" si="4"/>
-        <v>95</v>
-      </c>
-      <c r="C150" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="str">
-        <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="C151" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293949596</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" t="str">
-        <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-      <c r="C152" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091929394959697</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" t="str">
-        <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="C153" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" t="str">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="C154" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293949596979899</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" t="str">
-        <f t="shared" si="4"/>
-        <v>9A</v>
-      </c>
-      <c r="C155" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="str">
-        <f t="shared" si="4"/>
-        <v>9B</v>
-      </c>
-      <c r="C156" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" t="str">
-        <f t="shared" si="4"/>
-        <v>9C</v>
-      </c>
-      <c r="C157" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="str">
-        <f t="shared" si="4"/>
-        <v>9D</v>
-      </c>
-      <c r="C158" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" t="str">
-        <f t="shared" si="4"/>
-        <v>9E</v>
-      </c>
-      <c r="C159" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" t="str">
-        <f t="shared" si="4"/>
-        <v>9F</v>
-      </c>
-      <c r="C160" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9F</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161" t="str">
-        <f t="shared" si="4"/>
-        <v>A0</v>
-      </c>
-      <c r="C161" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162" t="str">
-        <f t="shared" si="4"/>
-        <v>A1</v>
-      </c>
-      <c r="C162" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163" t="str">
-        <f t="shared" si="4"/>
-        <v>A2</v>
-      </c>
-      <c r="C163" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164" t="str">
-        <f t="shared" si="4"/>
-        <v>A3</v>
-      </c>
-      <c r="C164" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165" t="str">
-        <f t="shared" si="4"/>
-        <v>A4</v>
-      </c>
-      <c r="C165" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
-      </c>
-      <c r="C166" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167" t="str">
-        <f t="shared" si="4"/>
-        <v>A6</v>
-      </c>
-      <c r="C167" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168" t="str">
-        <f t="shared" si="4"/>
-        <v>A7</v>
-      </c>
-      <c r="C168" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="str">
-        <f t="shared" si="4"/>
-        <v>A8</v>
-      </c>
-      <c r="C169" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170" t="str">
-        <f t="shared" si="4"/>
-        <v>A9</v>
-      </c>
-      <c r="C170" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171" t="str">
-        <f t="shared" si="4"/>
-        <v>AA</v>
-      </c>
-      <c r="C171" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AA</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172" t="str">
-        <f t="shared" si="4"/>
-        <v>AB</v>
-      </c>
-      <c r="C172" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAAB</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173" t="str">
-        <f t="shared" si="4"/>
-        <v>AC</v>
-      </c>
-      <c r="C173" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABAC</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174" t="str">
-        <f t="shared" si="4"/>
-        <v>AD</v>
-      </c>
-      <c r="C174" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACAD</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" t="str">
-        <f t="shared" si="4"/>
-        <v>AE</v>
-      </c>
-      <c r="C175" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAE</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176" t="str">
-        <f t="shared" si="4"/>
-        <v>AF</v>
-      </c>
-      <c r="C176" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAF</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
-      </c>
-      <c r="C177" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178" t="str">
-        <f t="shared" si="4"/>
-        <v>B1</v>
-      </c>
-      <c r="C178" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" t="str">
-        <f t="shared" si="4"/>
-        <v>B2</v>
-      </c>
-      <c r="C179" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" t="str">
-        <f t="shared" si="4"/>
-        <v>B3</v>
-      </c>
-      <c r="C180" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181" t="str">
-        <f t="shared" si="4"/>
-        <v>B4</v>
-      </c>
-      <c r="C181" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182" t="str">
-        <f t="shared" si="4"/>
-        <v>B5</v>
-      </c>
-      <c r="C182" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183" t="str">
-        <f t="shared" si="4"/>
-        <v>B6</v>
-      </c>
-      <c r="C183" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184" t="str">
-        <f t="shared" si="4"/>
-        <v>B7</v>
-      </c>
-      <c r="C184" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185" t="str">
-        <f t="shared" si="4"/>
-        <v>B8</v>
-      </c>
-      <c r="C185" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186" t="str">
-        <f t="shared" si="4"/>
-        <v>B9</v>
-      </c>
-      <c r="C186" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187" t="str">
-        <f t="shared" si="4"/>
-        <v>BA</v>
-      </c>
-      <c r="C187" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BA</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188" t="str">
-        <f t="shared" si="4"/>
-        <v>BB</v>
-      </c>
-      <c r="C188" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABB</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189" t="str">
-        <f t="shared" si="4"/>
-        <v>BC</v>
-      </c>
-      <c r="C189" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBC</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190" t="str">
-        <f t="shared" si="4"/>
-        <v>BD</v>
-      </c>
-      <c r="C190" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBD</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191" t="str">
-        <f t="shared" si="4"/>
-        <v>BE</v>
-      </c>
-      <c r="C191" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBE</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192" t="str">
-        <f t="shared" si="4"/>
-        <v>BF</v>
-      </c>
-      <c r="C192" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBF</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193" t="str">
-        <f t="shared" si="4"/>
-        <v>C0</v>
-      </c>
-      <c r="C193" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" t="str">
-        <f t="shared" si="4"/>
-        <v>C1</v>
-      </c>
-      <c r="C194" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" t="str">
-        <f t="shared" si="4"/>
-        <v>C2</v>
-      </c>
-      <c r="C195" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" t="str">
-        <f t="shared" si="4"/>
-        <v>C3</v>
-      </c>
-      <c r="C196" t="str">
-        <f t="shared" si="5"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" t="str">
-        <f t="shared" ref="B197:B256" si="6">DEC2HEX(A197,2)</f>
-        <v>C4</v>
-      </c>
-      <c r="C197" t="str">
-        <f t="shared" ref="C197:C256" si="7">C196&amp;B197</f>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" t="str">
-        <f t="shared" si="6"/>
-        <v>C5</v>
-      </c>
-      <c r="C198" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" t="str">
-        <f t="shared" si="6"/>
-        <v>C6</v>
-      </c>
-      <c r="C199" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200" t="str">
-        <f t="shared" si="6"/>
-        <v>C7</v>
-      </c>
-      <c r="C200" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201" t="str">
-        <f t="shared" si="6"/>
-        <v>C8</v>
-      </c>
-      <c r="C201" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="B202" t="str">
-        <f t="shared" si="6"/>
-        <v>C9</v>
-      </c>
-      <c r="C202" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203" t="str">
-        <f t="shared" si="6"/>
-        <v>CA</v>
-      </c>
-      <c r="C203" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CA</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204" t="str">
-        <f t="shared" si="6"/>
-        <v>CB</v>
-      </c>
-      <c r="C204" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACB</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="B205" t="str">
-        <f t="shared" si="6"/>
-        <v>CC</v>
-      </c>
-      <c r="C205" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCC</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A206">
-        <v>205</v>
-      </c>
-      <c r="B206" t="str">
-        <f t="shared" si="6"/>
-        <v>CD</v>
-      </c>
-      <c r="C206" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCD</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A207">
-        <v>206</v>
-      </c>
-      <c r="B207" t="str">
-        <f t="shared" si="6"/>
-        <v>CE</v>
-      </c>
-      <c r="C207" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCE</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A208">
-        <v>207</v>
-      </c>
-      <c r="B208" t="str">
-        <f t="shared" si="6"/>
-        <v>CF</v>
-      </c>
-      <c r="C208" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECF</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A209">
-        <v>208</v>
-      </c>
-      <c r="B209" t="str">
-        <f t="shared" si="6"/>
-        <v>D0</v>
-      </c>
-      <c r="C209" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A210">
-        <v>209</v>
-      </c>
-      <c r="B210" t="str">
-        <f t="shared" si="6"/>
-        <v>D1</v>
-      </c>
-      <c r="C210" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A211">
-        <v>210</v>
-      </c>
-      <c r="B211" t="str">
-        <f t="shared" si="6"/>
-        <v>D2</v>
-      </c>
-      <c r="C211" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A212">
-        <v>211</v>
-      </c>
-      <c r="B212" t="str">
-        <f t="shared" si="6"/>
-        <v>D3</v>
-      </c>
-      <c r="C212" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A213">
-        <v>212</v>
-      </c>
-      <c r="B213" t="str">
-        <f t="shared" si="6"/>
-        <v>D4</v>
-      </c>
-      <c r="C213" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A214">
-        <v>213</v>
-      </c>
-      <c r="B214" t="str">
-        <f t="shared" si="6"/>
-        <v>D5</v>
-      </c>
-      <c r="C214" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A215">
-        <v>214</v>
-      </c>
-      <c r="B215" t="str">
-        <f t="shared" si="6"/>
-        <v>D6</v>
-      </c>
-      <c r="C215" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A216">
-        <v>215</v>
-      </c>
-      <c r="B216" t="str">
-        <f t="shared" si="6"/>
-        <v>D7</v>
-      </c>
-      <c r="C216" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A217">
-        <v>216</v>
-      </c>
-      <c r="B217" t="str">
-        <f t="shared" si="6"/>
-        <v>D8</v>
-      </c>
-      <c r="C217" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A218">
-        <v>217</v>
-      </c>
-      <c r="B218" t="str">
-        <f t="shared" si="6"/>
-        <v>D9</v>
-      </c>
-      <c r="C218" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A219">
-        <v>218</v>
-      </c>
-      <c r="B219" t="str">
-        <f t="shared" si="6"/>
-        <v>DA</v>
-      </c>
-      <c r="C219" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DA</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A220">
-        <v>219</v>
-      </c>
-      <c r="B220" t="str">
-        <f t="shared" si="6"/>
-        <v>DB</v>
-      </c>
-      <c r="C220" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADB</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A221">
-        <v>220</v>
-      </c>
-      <c r="B221" t="str">
-        <f t="shared" si="6"/>
-        <v>DC</v>
-      </c>
-      <c r="C221" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDC</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A222">
-        <v>221</v>
-      </c>
-      <c r="B222" t="str">
-        <f t="shared" si="6"/>
-        <v>DD</v>
-      </c>
-      <c r="C222" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDD</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A223">
-        <v>222</v>
-      </c>
-      <c r="B223" t="str">
-        <f t="shared" si="6"/>
-        <v>DE</v>
-      </c>
-      <c r="C223" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDE</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A224">
-        <v>223</v>
-      </c>
-      <c r="B224" t="str">
-        <f t="shared" si="6"/>
-        <v>DF</v>
-      </c>
-      <c r="C224" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A225">
-        <v>224</v>
-      </c>
-      <c r="B225" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>E0</v>
-      </c>
-      <c r="C225" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A226">
-        <v>225</v>
-      </c>
-      <c r="B226" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>E1</v>
-      </c>
-      <c r="C226" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A227">
-        <v>226</v>
-      </c>
-      <c r="B227" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>E2</v>
-      </c>
-      <c r="C227" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A228">
-        <v>227</v>
-      </c>
-      <c r="B228" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>E3</v>
-      </c>
-      <c r="C228" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A229">
-        <v>228</v>
-      </c>
-      <c r="B229" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>E4</v>
-      </c>
-      <c r="C229" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A230">
-        <v>229</v>
-      </c>
-      <c r="B230" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>E5</v>
-      </c>
-      <c r="C230" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A231">
-        <v>230</v>
-      </c>
-      <c r="B231" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>E6</v>
-      </c>
-      <c r="C231" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A232">
-        <v>231</v>
-      </c>
-      <c r="B232" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>E7</v>
-      </c>
-      <c r="C232" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A233">
-        <v>232</v>
-      </c>
-      <c r="B233" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>E8</v>
-      </c>
-      <c r="C233" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A234">
-        <v>233</v>
-      </c>
-      <c r="B234" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>E9</v>
-      </c>
-      <c r="C234" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A235">
-        <v>234</v>
-      </c>
-      <c r="B235" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>EA</v>
-      </c>
-      <c r="C235" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EA</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A236">
-        <v>235</v>
-      </c>
-      <c r="B236" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>EB</v>
-      </c>
-      <c r="C236" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEB</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A237">
-        <v>236</v>
-      </c>
-      <c r="B237" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>EC</v>
-      </c>
-      <c r="C237" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBEC</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A238">
-        <v>237</v>
-      </c>
-      <c r="B238" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>ED</v>
-      </c>
-      <c r="C238" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECED</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A239">
-        <v>238</v>
-      </c>
-      <c r="B239" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>EE</v>
-      </c>
-      <c r="C239" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEE</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A240">
-        <v>239</v>
-      </c>
-      <c r="B240" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>EF</v>
-      </c>
-      <c r="C240" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A241">
-        <v>48</v>
-      </c>
-      <c r="B241" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="C241" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A242">
-        <v>48</v>
-      </c>
-      <c r="B242" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="C242" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A243">
-        <v>48</v>
-      </c>
-      <c r="B243" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="C243" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A244">
-        <v>48</v>
-      </c>
-      <c r="B244" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="C244" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A245">
-        <v>0</v>
-      </c>
-      <c r="B245" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C245" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A246">
-        <v>0</v>
-      </c>
-      <c r="B246" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C246" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A247">
-        <v>0</v>
-      </c>
-      <c r="B247" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C247" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A248">
-        <v>0</v>
-      </c>
-      <c r="B248" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C248" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000000000</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A249">
-        <v>0</v>
-      </c>
-      <c r="B249" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C249" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000000000</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A250">
-        <v>0</v>
-      </c>
-      <c r="B250" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C250" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A251">
-        <v>0</v>
-      </c>
-      <c r="B251" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C251" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000000000000000</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A252">
-        <v>0</v>
-      </c>
-      <c r="B252" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C252" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000000000000000</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A253">
-        <v>0</v>
-      </c>
-      <c r="B253" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C253" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A254">
-        <v>0</v>
-      </c>
-      <c r="B254" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C254" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000000000000000000000</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A255">
-        <v>0</v>
-      </c>
-      <c r="B255" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
-      </c>
-      <c r="C255" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000000000000000000000</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A256">
-        <v>4</v>
-      </c>
-      <c r="B256" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>04</v>
-      </c>
-      <c r="C256" t="str">
-        <f t="shared" si="7"/>
-        <v>0000000000000000000000000000000002020202020202020202020202020200202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000000004</v>
-      </c>
-    </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F260" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA096B3-D7B5-4C5B-B7DC-FF22AFBFD665}">
-  <dimension ref="B1:R16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="7.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-      <c r="H1">
-        <v>5</v>
-      </c>
-      <c r="I1">
-        <v>6</v>
-      </c>
-      <c r="J1">
-        <v>7</v>
-      </c>
-      <c r="K1">
-        <v>8</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="M1">
-        <v>10</v>
-      </c>
-      <c r="N1">
-        <v>11</v>
-      </c>
-      <c r="O1">
-        <v>12</v>
-      </c>
-      <c r="P1">
-        <v>13</v>
-      </c>
-      <c r="Q1">
-        <v>14</v>
-      </c>
-      <c r="R1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="F16">
-        <f>2^4</f>
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2374AE7F-8AC8-4FBD-876B-5B0342DA7FCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821BA63-B81B-4BAF-B19E-99CD2E9A6A21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -174,12 +175,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -328,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,7 +360,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -359,13 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -375,15 +403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611DC74D-9417-4124-AE6F-360A4C6083BD}">
   <dimension ref="A2:BD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -726,26 +745,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -999,24 +1018,24 @@
         <f>DEC2HEX(A5,2)</f>
         <v>00</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
       <c r="T5" s="2">
         <v>0</v>
       </c>
@@ -1097,22 +1116,22 @@
         <f t="shared" ref="B6:B20" si="3">DEC2HEX(A6,2)</f>
         <v>01</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="18"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="13"/>
       <c r="T6" s="2">
         <v>1</v>
       </c>
@@ -1193,24 +1212,24 @@
         <f t="shared" si="3"/>
         <v>02</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
       <c r="T7" s="2">
         <v>2</v>
       </c>
@@ -1291,22 +1310,22 @@
         <f t="shared" si="3"/>
         <v>03</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="18"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="13"/>
       <c r="T8" s="2">
         <v>3</v>
       </c>
@@ -1387,24 +1406,24 @@
         <f t="shared" si="3"/>
         <v>04</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
       <c r="T9" s="2">
         <v>4</v>
       </c>
@@ -1485,22 +1504,22 @@
         <f t="shared" si="3"/>
         <v>05</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="18"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="13"/>
       <c r="T10" s="2">
         <v>5</v>
       </c>
@@ -1581,24 +1600,24 @@
         <f t="shared" si="3"/>
         <v>06</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
       <c r="T11" s="2">
         <v>6</v>
       </c>
@@ -1679,22 +1698,22 @@
         <f t="shared" si="3"/>
         <v>07</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="18"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="13"/>
       <c r="T12" s="2">
         <v>7</v>
       </c>
@@ -1775,24 +1794,24 @@
         <f t="shared" si="3"/>
         <v>08</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
       <c r="T13" s="2">
         <v>8</v>
       </c>
@@ -1873,22 +1892,22 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="18"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="13"/>
       <c r="T14" s="2">
         <v>9</v>
       </c>
@@ -1969,24 +1988,24 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
       <c r="T15" s="2">
         <v>10</v>
       </c>
@@ -2067,22 +2086,22 @@
         <f t="shared" si="3"/>
         <v>0B</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="18"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="13"/>
       <c r="T16" s="2">
         <v>11</v>
       </c>
@@ -2163,24 +2182,24 @@
         <f t="shared" si="3"/>
         <v>0C</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
       <c r="T17" s="2">
         <v>12</v>
       </c>
@@ -2261,22 +2280,22 @@
         <f t="shared" si="3"/>
         <v>0D</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="13"/>
       <c r="T18" s="2">
         <v>13</v>
       </c>
@@ -2357,24 +2376,24 @@
         <f t="shared" si="3"/>
         <v>0E</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
       <c r="T19" s="2">
         <v>14</v>
       </c>
@@ -2455,22 +2474,22 @@
         <f t="shared" si="3"/>
         <v>0F</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="13"/>
       <c r="T20" s="2">
         <v>15</v>
       </c>
@@ -2544,26 +2563,26 @@
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
@@ -2817,24 +2836,24 @@
         <f>DEC2HEX(A25,2)</f>
         <v>00</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="11"/>
       <c r="T25" s="2">
         <v>0</v>
       </c>
@@ -2915,22 +2934,22 @@
         <f t="shared" ref="B26:B40" si="37">DEC2HEX(A26,2)</f>
         <v>01</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="18"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="13"/>
       <c r="T26" s="2">
         <v>1</v>
       </c>
@@ -3011,24 +3030,24 @@
         <f t="shared" si="37"/>
         <v>02</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
       <c r="T27" s="2">
         <v>2</v>
       </c>
@@ -3109,22 +3128,22 @@
         <f t="shared" si="37"/>
         <v>03</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
       <c r="T28" s="2">
         <v>3</v>
       </c>
@@ -3205,24 +3224,24 @@
         <f t="shared" si="37"/>
         <v>04</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="11"/>
       <c r="T29" s="2">
         <v>4</v>
       </c>
@@ -3303,22 +3322,22 @@
         <f t="shared" si="37"/>
         <v>05</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="18"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="13"/>
       <c r="T30" s="2">
         <v>5</v>
       </c>
@@ -3399,24 +3418,24 @@
         <f t="shared" si="37"/>
         <v>06</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
       <c r="T31" s="2">
         <v>6</v>
       </c>
@@ -3497,22 +3516,22 @@
         <f t="shared" si="37"/>
         <v>07</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
       <c r="T32" s="2">
         <v>7</v>
       </c>
@@ -3593,24 +3612,24 @@
         <f t="shared" si="37"/>
         <v>08</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="11"/>
       <c r="T33" s="2">
         <v>8</v>
       </c>
@@ -3691,22 +3710,22 @@
         <f t="shared" si="37"/>
         <v>09</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="18"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="13"/>
       <c r="T34" s="2">
         <v>9</v>
       </c>
@@ -3787,24 +3806,24 @@
         <f t="shared" si="37"/>
         <v>0A</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
       <c r="T35" s="2">
         <v>10</v>
       </c>
@@ -3885,22 +3904,22 @@
         <f t="shared" si="37"/>
         <v>0B</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
       <c r="T36" s="2">
         <v>11</v>
       </c>
@@ -3981,24 +4000,24 @@
         <f t="shared" si="37"/>
         <v>0C</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="12"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="11"/>
       <c r="T37" s="2">
         <v>12</v>
       </c>
@@ -4079,22 +4098,22 @@
         <f t="shared" si="37"/>
         <v>0D</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="18"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="13"/>
       <c r="T38" s="2">
         <v>13</v>
       </c>
@@ -4175,24 +4194,24 @@
         <f t="shared" si="37"/>
         <v>0E</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
       <c r="T39" s="2">
         <v>14</v>
       </c>
@@ -4273,22 +4292,22 @@
         <f t="shared" si="37"/>
         <v>0F</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
       <c r="T40" s="2">
         <v>15</v>
       </c>
@@ -4362,26 +4381,26 @@
       </c>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
@@ -4755,23 +4774,23 @@
         <f>DEC2HEX(A45,2)</f>
         <v>00</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="9"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="16"/>
       <c r="R45" s="2" t="s">
         <v>4</v>
       </c>
@@ -4926,23 +4945,23 @@
         <f t="shared" ref="B46:B60" si="78">DEC2HEX(A46,2)</f>
         <v>01</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="9"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="16"/>
       <c r="R46" s="2" t="s">
         <v>5</v>
       </c>
@@ -5097,24 +5116,24 @@
         <f t="shared" si="78"/>
         <v>02</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="12"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="11"/>
       <c r="T47" s="2">
         <v>2</v>
       </c>
@@ -5266,22 +5285,22 @@
         <f t="shared" si="78"/>
         <v>03</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="15"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="20"/>
       <c r="T48" s="2">
         <v>3</v>
       </c>
@@ -5433,22 +5452,22 @@
         <f t="shared" si="78"/>
         <v>04</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="15"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="20"/>
       <c r="T49" s="2">
         <v>4</v>
       </c>
@@ -5600,22 +5619,22 @@
         <f t="shared" si="78"/>
         <v>05</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="15"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="20"/>
       <c r="T50" s="2">
         <v>5</v>
       </c>
@@ -5767,22 +5786,22 @@
         <f t="shared" si="78"/>
         <v>06</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="15"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20"/>
       <c r="T51" s="2">
         <v>6</v>
       </c>
@@ -5934,22 +5953,22 @@
         <f t="shared" si="78"/>
         <v>07</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="15"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="20"/>
       <c r="T52" s="2">
         <v>7</v>
       </c>
@@ -6101,22 +6120,22 @@
         <f t="shared" si="78"/>
         <v>08</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="15"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="20"/>
       <c r="T53" s="2">
         <v>8</v>
       </c>
@@ -6268,22 +6287,22 @@
         <f t="shared" si="78"/>
         <v>09</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="15"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="20"/>
       <c r="T54" s="2">
         <v>9</v>
       </c>
@@ -6435,22 +6454,22 @@
         <f t="shared" si="78"/>
         <v>0A</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="15"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="20"/>
       <c r="T55" s="2">
         <v>10</v>
       </c>
@@ -6602,22 +6621,22 @@
         <f t="shared" si="78"/>
         <v>0B</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="15"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="20"/>
       <c r="T56" s="2">
         <v>11</v>
       </c>
@@ -6769,22 +6788,22 @@
         <f t="shared" si="78"/>
         <v>0C</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="15"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="20"/>
       <c r="T57" s="2">
         <v>12</v>
       </c>
@@ -6936,22 +6955,22 @@
         <f t="shared" si="78"/>
         <v>0D</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="15"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="20"/>
       <c r="T58" s="2">
         <v>13</v>
       </c>
@@ -7103,22 +7122,22 @@
         <f t="shared" si="78"/>
         <v>0E</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="18"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="13"/>
       <c r="T59" s="2">
         <v>14</v>
       </c>
@@ -7270,23 +7289,23 @@
         <f t="shared" si="78"/>
         <v>0F</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="9"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="16"/>
       <c r="R60" s="4" t="s">
         <v>12</v>
       </c>
@@ -7672,13 +7691,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C9:R10"/>
-    <mergeCell ref="C5:R6"/>
-    <mergeCell ref="C29:R30"/>
-    <mergeCell ref="C33:R34"/>
-    <mergeCell ref="C37:R38"/>
-    <mergeCell ref="C17:R18"/>
-    <mergeCell ref="C13:R14"/>
     <mergeCell ref="C60:Q60"/>
     <mergeCell ref="A22:R22"/>
     <mergeCell ref="C35:R36"/>
@@ -7690,14 +7702,3372 @@
     <mergeCell ref="C45:Q45"/>
     <mergeCell ref="C46:Q46"/>
     <mergeCell ref="C47:R59"/>
+    <mergeCell ref="C29:R30"/>
+    <mergeCell ref="C33:R34"/>
+    <mergeCell ref="C37:R38"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="C7:R8"/>
     <mergeCell ref="C11:R12"/>
     <mergeCell ref="C15:R16"/>
     <mergeCell ref="C19:R20"/>
+    <mergeCell ref="C9:R10"/>
+    <mergeCell ref="C5:R6"/>
+    <mergeCell ref="C17:R18"/>
+    <mergeCell ref="C13:R14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF33FAB-C998-4994-BDF6-29BF8F3E777B}">
+  <dimension ref="A1:C260"/>
+  <sheetViews>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>DEC2HEX(A1,2)</f>
+        <v>00</v>
+      </c>
+      <c r="C1" t="str">
+        <f>B1</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">DEC2HEX(A2,2)</f>
+        <v>00</v>
+      </c>
+      <c r="C2" t="str">
+        <f>C1&amp;B2</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="1">C2&amp;B3</f>
+        <v>000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
+        <v>0</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
+        <v>0</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
+        <v>0</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
+        <v>0</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
+        <v>0</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
+        <v>0</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
+        <v>0</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
+        <v>0</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>0</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
+        <v>8</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="6">
+        <v>8</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000000000000808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="6">
+        <v>8</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000000000000000080808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="6">
+        <v>8</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="6">
+        <v>8</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000000000000808080808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="6">
+        <v>8</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000000000000000080808080808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="6">
+        <v>8</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="6">
+        <v>8</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000000000000808080808080808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="6">
+        <v>8</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000000000000000080808080808080808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="6">
+        <v>8</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="6">
+        <v>8</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000000000000808080808080808080808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="6">
+        <v>8</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000000000000000080808080808080808080808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="6">
+        <v>8</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="6">
+        <v>8</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000000000000808080808080808080808080808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="6">
+        <v>8</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000000000000000080808080808080808080808080808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="6">
+        <v>0</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000000000000808080808080808080808080808080020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000000000000000080808080808080808080808080808002021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000000000000808080808080808080808080808080020212223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000000000000000080808080808080808080808080808002021222324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000000000000808080808080808080808080808080020212223242526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000000000000000000000000000080808080808080808080808080808002021222324252627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000000000000000000000000808080808080808080808080808080020212223242526272829</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>2B</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>2C</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>2D</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>2E</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>2F</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F3031</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F30313233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F3031323334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F30313233343536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F3031323334353637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F30313233343536373839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>3A</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>3B</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>3C</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>3D</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>3E</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>3F</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B129" si="2">DEC2HEX(A66,2)</f>
+        <v>41</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C130" si="3">C66&amp;B67</f>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041424344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243444546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F4041424344454647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F40414243444546474849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="2"/>
+        <v>4A</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="2"/>
+        <v>4B</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="2"/>
+        <v>4C</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="2"/>
+        <v>4D</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="2"/>
+        <v>4E</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="2"/>
+        <v>4F</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051525354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253545556</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F5051525354555657</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F50515253545556575859</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="2"/>
+        <v>5A</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="2"/>
+        <v>5B</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="2"/>
+        <v>5C</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="2"/>
+        <v>5D</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="2"/>
+        <v>5E</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="2"/>
+        <v>5F</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061626364</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263646566</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F6061626364656667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F60616263646566676869</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="2"/>
+        <v>6A</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="2"/>
+        <v>6B</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="2"/>
+        <v>6C</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="2"/>
+        <v>6D</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="2"/>
+        <v>6E</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="2"/>
+        <v>6F</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071727374</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273747576</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F7071727374757677</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F70717273747576777879</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="2"/>
+        <v>7A</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="2"/>
+        <v>7B</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="2"/>
+        <v>7C</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="2"/>
+        <v>7D</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="2"/>
+        <v>7E</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="2"/>
+        <v>7F</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" ref="B130:B193" si="4">DEC2HEX(A130,2)</f>
+        <v>81</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C194" si="5">C130&amp;B131</f>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081828384</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283848586</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F8081828384858687</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F80818283848586878889</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="4"/>
+        <v>8A</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="4"/>
+        <v>8B</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="4"/>
+        <v>8C</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="4"/>
+        <v>8D</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="4"/>
+        <v>8E</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="4"/>
+        <v>8F</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091929394</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293949596</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F9091929394959697</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F90919293949596979899</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="4"/>
+        <v>9A</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="4"/>
+        <v>9B</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="4"/>
+        <v>9C</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="4"/>
+        <v>9D</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="4"/>
+        <v>9E</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="4"/>
+        <v>9F</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9F</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="4"/>
+        <v>A0</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="4"/>
+        <v>A1</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="4"/>
+        <v>A2</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="4"/>
+        <v>A3</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="4"/>
+        <v>A4</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="4"/>
+        <v>A5</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="4"/>
+        <v>A6</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="4"/>
+        <v>A7</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="4"/>
+        <v>A8</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="4"/>
+        <v>A9</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="4"/>
+        <v>AA</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AA</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="4"/>
+        <v>AB</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAAB</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="4"/>
+        <v>AC</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABAC</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="4"/>
+        <v>AD</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACAD</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="4"/>
+        <v>AE</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAE</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="4"/>
+        <v>AF</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAF</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="4"/>
+        <v>B0</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="4"/>
+        <v>B1</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="4"/>
+        <v>B2</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="4"/>
+        <v>B3</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="4"/>
+        <v>B4</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="4"/>
+        <v>B5</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="4"/>
+        <v>B6</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="4"/>
+        <v>B7</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="4"/>
+        <v>B8</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="4"/>
+        <v>B9</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="4"/>
+        <v>BA</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BA</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="4"/>
+        <v>BB</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABB</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="4"/>
+        <v>BC</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBC</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="4"/>
+        <v>BD</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBD</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="4"/>
+        <v>BE</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBE</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="4"/>
+        <v>BF</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBF</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="4"/>
+        <v>C0</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" ref="B194:B256" si="6">DEC2HEX(A194,2)</f>
+        <v>C1</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="5"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="6"/>
+        <v>C2</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" ref="C195:C256" si="7">C194&amp;B195</f>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="6"/>
+        <v>C3</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="6"/>
+        <v>C4</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="6"/>
+        <v>C5</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="6"/>
+        <v>C6</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="6"/>
+        <v>C7</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="6"/>
+        <v>C8</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="6"/>
+        <v>C9</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="6"/>
+        <v>CA</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CA</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="6"/>
+        <v>CB</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACB</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="6"/>
+        <v>CC</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCC</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="6"/>
+        <v>CD</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCD</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="6"/>
+        <v>CE</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCE</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="6"/>
+        <v>CF</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECF</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="6"/>
+        <v>D0</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="6"/>
+        <v>D1</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="6"/>
+        <v>D2</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="6"/>
+        <v>D3</v>
+      </c>
+      <c r="C212" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="6"/>
+        <v>D4</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="6"/>
+        <v>D5</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="6"/>
+        <v>D6</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="6"/>
+        <v>D7</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="6"/>
+        <v>D8</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="6"/>
+        <v>D9</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="6"/>
+        <v>DA</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DA</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="6"/>
+        <v>DB</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADB</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="6"/>
+        <v>DC</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDC</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="6"/>
+        <v>DD</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDD</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="6"/>
+        <v>DE</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDE</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="6"/>
+        <v>DF</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDF</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="6"/>
+        <v>E0</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="6"/>
+        <v>E1</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="6"/>
+        <v>E2</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="6"/>
+        <v>E3</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="6"/>
+        <v>E4</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="6"/>
+        <v>E5</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="6"/>
+        <v>E6</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="6"/>
+        <v>E7</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="6"/>
+        <v>E8</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="6"/>
+        <v>E9</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="6"/>
+        <v>EA</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EA</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="6"/>
+        <v>EB</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEB</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="6"/>
+        <v>EC</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBEC</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="6"/>
+        <v>ED</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECED</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="6"/>
+        <v>EE</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEE</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="6"/>
+        <v>EF</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241" s="6">
+        <v>48</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242" s="6">
+        <v>48</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243" s="6">
+        <v>48</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244" s="6">
+        <v>48</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245" s="6">
+        <v>0</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246" s="6">
+        <v>0</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A247" s="6">
+        <v>0</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A248" s="6">
+        <v>0</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000000000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A249" s="6">
+        <v>0</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000000000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A250" s="6">
+        <v>0</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A251" s="6">
+        <v>0</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000000000000000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A252" s="6">
+        <v>0</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000000000000000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A253" s="6">
+        <v>0</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A254" s="6">
+        <v>0</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF3030303000000000000000000000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A255" s="6">
+        <v>0</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF303030300000000000000000000000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A256" s="6">
+        <v>4</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="7"/>
+        <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000000004</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A260" t="str">
+        <f>"#* WROM 255 "&amp;C256</f>
+        <v>#* WROM 255 0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89463EDE-D54D-40FB-84D7-4FE71CD08DD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F402ACE6-F6C6-4253-A21D-84D2E8E1E3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -64,11 +64,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STATE1</t>
+    <t>STATE0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STATE2</t>
+    <t>STATE1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -251,6 +251,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>STATE2</t>
+  </si>
+  <si>
     <t>STATE3</t>
   </si>
   <si>
@@ -288,9 +291,6 @@
   </si>
   <si>
     <t>STATE15</t>
-  </si>
-  <si>
-    <t>STATE16</t>
   </si>
   <si>
     <t>STATE0-0</t>
@@ -1630,9 +1630,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7767,8 +7765,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BD91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO64" sqref="AO64:BD65"/>
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO62" sqref="AO62:BD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16896,9 +16894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AA081E-1662-4F59-AB57-52A1AFEB9916}">
   <dimension ref="A1:R513"/>
   <sheetViews>
-    <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:R481"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E746E031-8A2F-4B10-8868-9AA9F36D50BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EC54DF-81EB-496D-BF32-27F599C2CC26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -1715,9 +1715,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7852,7 +7850,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BD91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V30" sqref="V30:AK31"/>
     </sheetView>
   </sheetViews>
@@ -13632,7 +13630,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -16981,7 +16981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AA081E-1662-4F59-AB57-52A1AFEB9916}">
   <dimension ref="A1:R513"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="R450" sqref="R450:R451"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -50875,5 +50877,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251AB80C-7932-486D-9D1E-09CB4B9630D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9B0F2A-77FE-41AF-B7DA-0AB274CB3469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="94">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="1"/>
@@ -386,10 +386,6 @@
   </si>
   <si>
     <t>PICO_FLASH_SIZE_BYTES - FLASH_PAGE_SIZE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FLASH_SECTOR_SIZE - 0x10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1797,7 +1793,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7932,7 +7928,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BD91"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:R86"/>
     </sheetView>
   </sheetViews>
@@ -17063,8 +17059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AA081E-1662-4F59-AB57-52A1AFEB9916}">
   <dimension ref="A1:AC528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="V452" sqref="V452"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -46696,6 +46692,10 @@
       <c r="R455" s="95" t="s">
         <v>56</v>
       </c>
+      <c r="V455" t="str">
+        <f>DEC2HEX(HEX2DEC(C455)-MOD(HEX2DEC(C455),Address!$D$11),8)</f>
+        <v>00FFE000</v>
+      </c>
     </row>
     <row r="456" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A456" s="43"/>
@@ -46761,6 +46761,10 @@
         <v>16769536</v>
       </c>
       <c r="R456" s="96"/>
+      <c r="V456" t="str">
+        <f>DEC2HEX(MOD(HEX2DEC(C455),Address!$D$11) )</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="457" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A457" s="43"/>
@@ -48949,6 +48953,10 @@
         <v>16773888</v>
       </c>
       <c r="R489" s="95"/>
+      <c r="V489">
+        <f>Address!$D$11 / Address!$D$14</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="490" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A490" s="43"/>
@@ -49014,6 +49022,10 @@
         <v>16773888</v>
       </c>
       <c r="R490" s="96"/>
+      <c r="V490" t="str">
+        <f>DEC2HEX(2093056,8)</f>
+        <v>001FF000</v>
+      </c>
     </row>
     <row r="491" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A491" s="43"/>
@@ -50632,22 +50644,11 @@
       <c r="AC518" s="1"/>
     </row>
     <row r="519" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="T519" t="str">
-        <f>DEC2HEX(Address!$D$11 - HEX2DEC("10"),4)</f>
-        <v>0FF0</v>
-      </c>
-      <c r="V519" t="s">
-        <v>94</v>
-      </c>
       <c r="AA519" s="1"/>
       <c r="AB519" s="1"/>
       <c r="AC519" s="1"/>
     </row>
     <row r="520" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="T520" t="str">
-        <f>DEC2HEX(Address!$D$11,4)</f>
-        <v>1000</v>
-      </c>
       <c r="AA520" s="1"/>
       <c r="AB520" s="1"/>
       <c r="AC520" s="1"/>

--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9B0F2A-77FE-41AF-B7DA-0AB274CB3469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E87F856-64F6-442B-A5EC-4E42864F1E1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -1793,7 +1793,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13706,10 +13708,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF33FAB-C998-4994-BDF6-29BF8F3E777B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17042,11 +17044,75 @@
         <v>0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000000004</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A260" t="str">
-        <f>"#* WROM 255 "&amp;C256</f>
-        <v>#* WROM 255 0000000000000000000000000000000008080808080808080808080808080800202122232425262728292A2B2C2D2E2F303132333435363738393A3B3C3D3E3F404142434445464748494A4B4C4D4E4F505152535455565758595A5B5C5D5E5F606162636465666768696A6B6C6D6E6F707172737475767778797A7B7C7D7E7F808182838485868788898A8B8C8D8E8F909192939495969798999A9B9C9D9E9FA0A1A2A3A4A5A6A7A8A9AAABACADAEAFB0B1B2B3B4B5B6B7B8B9BABBBCBDBEBFC0C1C2C3C4C5C6C7C8C9CACBCCCDCECFD0D1D2D3D4D5D6D7D8D9DADBDCDDDEDFE0E1E2E3E4E5E6E7E8E9EAEBECEDEEEF30303030000000000000000000000004</v>
-      </c>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -17060,7 +17126,7 @@
   <dimension ref="A1:AC528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E87F856-64F6-442B-A5EC-4E42864F1E1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2012FBC-0DFC-4293-807B-C688A33E637E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -1793,9 +1793,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13710,7 +13708,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+    <sheetView topLeftCell="A240" workbookViewId="0">
       <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
@@ -17126,7 +17124,7 @@
   <dimension ref="A1:AC528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE9B0E9-76FB-478D-A6B2-4B78166F3495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC29BEE-9E49-4ADA-BE57-FB1B6E0A7E14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
@@ -7933,7 +7933,7 @@
   <dimension ref="A1:BD91"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:R86"/>
+      <selection activeCell="AA71" sqref="AA71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17127,8 +17127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AA081E-1662-4F59-AB57-52A1AFEB9916}">
   <dimension ref="A1:AC528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="R513" sqref="R513:R514"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -47163,6 +47163,10 @@
       </c>
       <c r="R461" s="102" t="s">
         <v>59</v>
+      </c>
+      <c r="V461">
+        <f>4*15*16</f>
+        <v>960</v>
       </c>
     </row>
     <row r="462" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">

--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8F073B-CA87-4F23-A17C-E5E70CCF8C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E429F87-C00D-4BB2-861F-54765EAEFB0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -1797,9 +1797,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7934,8 +7932,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BD91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17129,8 +17127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AA081E-1662-4F59-AB57-52A1AFEB9916}">
   <dimension ref="A1:AC528"/>
   <sheetViews>
-    <sheetView topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="V524" sqref="V524"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -46774,10 +46772,6 @@
       <c r="R455" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="V455" t="str">
-        <f>DEC2HEX(HEX2DEC(C455)-MOD(HEX2DEC(C455),Address!$D$11),8)</f>
-        <v>00FFE000</v>
-      </c>
     </row>
     <row r="456" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A456" s="47"/>
@@ -46843,10 +46837,6 @@
         <v>16769536</v>
       </c>
       <c r="R456" s="104"/>
-      <c r="V456" t="str">
-        <f>DEC2HEX(MOD(HEX2DEC(C455),Address!$D$11) )</f>
-        <v>200</v>
-      </c>
     </row>
     <row r="457" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A457" s="47"/>
@@ -47178,10 +47168,6 @@
       <c r="R461" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="V461">
-        <f>4*15*16</f>
-        <v>960</v>
-      </c>
     </row>
     <row r="462" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A462" s="47"/>
@@ -49041,10 +49027,6 @@
         <v>16773888</v>
       </c>
       <c r="R489" s="103"/>
-      <c r="V489">
-        <f>Address!$D$11 / Address!$D$14</f>
-        <v>16</v>
-      </c>
     </row>
     <row r="490" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A490" s="47"/>
@@ -49110,10 +49092,6 @@
         <v>16773888</v>
       </c>
       <c r="R490" s="104"/>
-      <c r="V490" t="str">
-        <f>DEC2HEX(2093056,8)</f>
-        <v>001FF000</v>
-      </c>
     </row>
     <row r="491" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A491" s="47"/>
@@ -50752,19 +50730,11 @@
       <c r="AC522" s="1"/>
     </row>
     <row r="523" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="V523" t="str">
-        <f>HEX2BIN("C0",8)</f>
-        <v>11000000</v>
-      </c>
       <c r="AA523" s="1"/>
       <c r="AB523" s="1"/>
       <c r="AC523" s="1"/>
     </row>
     <row r="524" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="V524" t="str">
-        <f>HEX2BIN("E0",8)</f>
-        <v>11100000</v>
-      </c>
       <c r="AA524" s="1"/>
       <c r="AB524" s="1"/>
       <c r="AC524" s="1"/>

--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44BB877-25E2-454B-921D-F8E50A6D5AEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C9BD3-7EBC-4E2E-A903-34F1C83A378E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -1787,7 +1787,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7922,7 +7922,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/PCAB_Debugger_RP2040/ROM.xlsx
+++ b/PCAB_Debugger_RP2040/ROM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\_GitHub\PCAB_Debugger\PCAB_Debugger_RP2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FAC16C-7E7C-4829-866F-BCE07BEE8572}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B9A01A-FCEF-4578-84E5-6DB54901A2DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{C276B5FE-8C8D-4927-A081-8A83CD7DE945}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -1172,7 +1172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1521,6 +1521,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1838,7 +1841,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7973,8 +7976,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V72" sqref="V72:AK85"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12923,26 +12926,26 @@
         <f t="shared" si="15"/>
         <v>0E</v>
       </c>
-      <c r="V86" s="99" t="s">
+      <c r="V86" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="W86" s="100"/>
-      <c r="X86" s="100"/>
-      <c r="Y86" s="100"/>
-      <c r="Z86" s="100"/>
-      <c r="AA86" s="100"/>
-      <c r="AB86" s="100"/>
-      <c r="AC86" s="100"/>
-      <c r="AD86" s="100"/>
-      <c r="AE86" s="100"/>
-      <c r="AF86" s="100"/>
-      <c r="AG86" s="100"/>
-      <c r="AH86" s="100"/>
-      <c r="AI86" s="100"/>
-      <c r="AJ86" s="100" t="s">
+      <c r="W86" s="94"/>
+      <c r="X86" s="94"/>
+      <c r="Y86" s="94"/>
+      <c r="Z86" s="94"/>
+      <c r="AA86" s="94"/>
+      <c r="AB86" s="94"/>
+      <c r="AC86" s="94"/>
+      <c r="AD86" s="94"/>
+      <c r="AE86" s="94"/>
+      <c r="AF86" s="94"/>
+      <c r="AG86" s="95"/>
+      <c r="AH86" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="AK86" s="56"/>
+      <c r="AI86" s="94"/>
+      <c r="AJ86" s="94"/>
+      <c r="AK86" s="87"/>
     </row>
     <row r="87" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="47">
@@ -12996,6 +12999,62 @@
         <v>7</v>
       </c>
     </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="T88" s="1">
+        <v>18</v>
+      </c>
+      <c r="U88" s="1">
+        <v>17</v>
+      </c>
+      <c r="V88" s="1">
+        <v>16</v>
+      </c>
+      <c r="W88" s="1">
+        <v>15</v>
+      </c>
+      <c r="X88" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z88" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK88" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B89" s="7"/>
       <c r="C89" s="7">
@@ -13083,6 +13142,7 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="V86:AG86"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:R3"/>
     <mergeCell ref="A2:B2"/>
@@ -13137,8 +13197,7 @@
     <mergeCell ref="W68:Y69"/>
     <mergeCell ref="T69:U69"/>
     <mergeCell ref="V72:AK85"/>
-    <mergeCell ref="AJ86:AK86"/>
-    <mergeCell ref="V86:AI86"/>
+    <mergeCell ref="AH86:AK86"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="G67:R69"/>
     <mergeCell ref="A68:B68"/>
